--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_24_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1683112.463370732</v>
+        <v>1682467.908140235</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5272379.830732162</v>
+        <v>5272379.83073217</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058548</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.11874693809604</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>16.33636654630302</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>24.9460516311479</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="W11" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>12.70672709799584</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
     </row>
     <row r="12">
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="V13" t="n">
         <v>19.9034209763268</v>
       </c>
       <c r="W13" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>37.65277872914388</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.625966583223745</v>
+        <v>2.625966583223716</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>24.9460516311479</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>12.70672709799581</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>12.02296120779036</v>
+        <v>12.02296120779034</v>
       </c>
       <c r="V15" t="n">
-        <v>15.44332670727917</v>
+        <v>15.44332670727914</v>
       </c>
       <c r="W15" t="n">
-        <v>41.49898936888852</v>
+        <v>41.49898936888849</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>10.34036241782105</v>
+        <v>10.34036241782102</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="V16" t="n">
-        <v>19.90342097632683</v>
+        <v>19.9034209763268</v>
       </c>
       <c r="W16" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>33.58244823586926</v>
       </c>
       <c r="F17" t="n">
-        <v>42.74838638640318</v>
+        <v>19.30287321994997</v>
       </c>
       <c r="G17" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>9.266308405720526</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y17" t="n">
-        <v>37.67423900424429</v>
+        <v>42.74838638640298</v>
       </c>
     </row>
     <row r="18">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25.05429694102558</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>33.58244823586926</v>
+        <v>10.13693506941605</v>
       </c>
       <c r="F20" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>21.88625046893924</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
     </row>
     <row r="21">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>148.8816461697101</v>
+        <v>148.8816461697102</v>
       </c>
       <c r="C26" t="n">
-        <v>124.9999031730556</v>
+        <v>124.9999031730557</v>
       </c>
       <c r="D26" t="n">
         <v>112.5665654341041</v>
@@ -2570,10 +2570,10 @@
         <v>193.6463830872911</v>
       </c>
       <c r="H26" t="n">
-        <v>121.9571780233642</v>
+        <v>121.9571780233643</v>
       </c>
       <c r="I26" t="n">
-        <v>16.33636654630294</v>
+        <v>16.33636654630214</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2.625966583223631</v>
+        <v>2.625966583223688</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>24.94605163114782</v>
+        <v>24.94605163114787</v>
       </c>
       <c r="V26" t="n">
-        <v>95.67418940102883</v>
+        <v>95.67418940102888</v>
       </c>
       <c r="W26" t="n">
-        <v>112.6908696176437</v>
+        <v>112.6908696176438</v>
       </c>
       <c r="X26" t="n">
-        <v>134.5771200865829</v>
+        <v>134.577120086583</v>
       </c>
       <c r="Y26" t="n">
-        <v>157.0799732103267</v>
+        <v>157.0799732103268</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>12.02296120779025</v>
+        <v>12.02296120779031</v>
       </c>
       <c r="V27" t="n">
-        <v>15.44332670727906</v>
+        <v>15.44332670727911</v>
       </c>
       <c r="W27" t="n">
-        <v>41.4989893688884</v>
+        <v>41.49898936888846</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>10.34036241782093</v>
+        <v>10.34036241782099</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>63.4513005139941</v>
+        <v>63.45130051399416</v>
       </c>
       <c r="V28" t="n">
-        <v>19.90342097632671</v>
+        <v>19.90342097632677</v>
       </c>
       <c r="W28" t="n">
-        <v>65.10511288121214</v>
+        <v>65.10511288121219</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>148.8816461697102</v>
+        <v>148.8816461697101</v>
       </c>
       <c r="C32" t="n">
-        <v>124.9999031730557</v>
+        <v>124.9999031730556</v>
       </c>
       <c r="D32" t="n">
         <v>112.5665654341041</v>
       </c>
       <c r="E32" t="n">
-        <v>146.273317853513</v>
+        <v>146.2733178535129</v>
       </c>
       <c r="F32" t="n">
         <v>177.9936554318903</v>
       </c>
       <c r="G32" t="n">
-        <v>193.6463830872911</v>
+        <v>193.646383087291</v>
       </c>
       <c r="H32" t="n">
-        <v>121.9571780233643</v>
+        <v>121.9571780233642</v>
       </c>
       <c r="I32" t="n">
-        <v>16.336366546303</v>
+        <v>16.33636654630291</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.625966583223688</v>
+        <v>2.625966583223603</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>24.94605163114787</v>
+        <v>24.94605163114778</v>
       </c>
       <c r="V32" t="n">
-        <v>95.67418940102888</v>
+        <v>95.6741894010288</v>
       </c>
       <c r="W32" t="n">
-        <v>112.6908696176438</v>
+        <v>112.6908696176437</v>
       </c>
       <c r="X32" t="n">
-        <v>134.577120086583</v>
+        <v>134.5771200865829</v>
       </c>
       <c r="Y32" t="n">
-        <v>157.0799732103268</v>
+        <v>157.0799732103267</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>12.02296120779031</v>
+        <v>12.02296120779022</v>
       </c>
       <c r="V33" t="n">
-        <v>15.44332670727911</v>
+        <v>15.44332670727903</v>
       </c>
       <c r="W33" t="n">
-        <v>41.49898936888846</v>
+        <v>41.49898936888837</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>10.34036241782099</v>
+        <v>10.34036241782091</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>63.45130051399416</v>
+        <v>63.45130051399407</v>
       </c>
       <c r="V34" t="n">
-        <v>19.90342097632677</v>
+        <v>19.90342097632669</v>
       </c>
       <c r="W34" t="n">
-        <v>65.10511288121219</v>
+        <v>65.10511288121211</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>136.1202663321443</v>
+        <v>136.1202663321444</v>
       </c>
       <c r="C44" t="n">
-        <v>112.2385233354898</v>
+        <v>112.2385233354899</v>
       </c>
       <c r="D44" t="n">
-        <v>99.80518559653828</v>
+        <v>99.80518559653834</v>
       </c>
       <c r="E44" t="n">
         <v>133.5119380159472</v>
@@ -3992,10 +3992,10 @@
         <v>180.8850032497253</v>
       </c>
       <c r="H44" t="n">
-        <v>109.1957981857984</v>
+        <v>109.1957981857985</v>
       </c>
       <c r="I44" t="n">
-        <v>3.574986708737129</v>
+        <v>3.574986708737065</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>12.18467179358201</v>
+        <v>12.18467179358205</v>
       </c>
       <c r="V44" t="n">
-        <v>82.91280956346301</v>
+        <v>82.91280956346307</v>
       </c>
       <c r="W44" t="n">
-        <v>99.92948978007789</v>
+        <v>99.92948978007794</v>
       </c>
       <c r="X44" t="n">
-        <v>121.8157402490171</v>
+        <v>121.8157402490172</v>
       </c>
       <c r="Y44" t="n">
         <v>144.3185933727609</v>
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>2.681946869713244</v>
+        <v>2.6819468697133</v>
       </c>
       <c r="W45" t="n">
-        <v>28.73760953132259</v>
+        <v>28.73760953132265</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>50.68992067642829</v>
+        <v>50.68992067642834</v>
       </c>
       <c r="V46" t="n">
-        <v>7.142041138760902</v>
+        <v>7.142041138760959</v>
       </c>
       <c r="W46" t="n">
-        <v>52.34373304364632</v>
+        <v>52.34373304364638</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.10143952980741</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="C11" t="n">
-        <v>63.10143952980741</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="D11" t="n">
-        <v>63.10143952980741</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="E11" t="n">
-        <v>63.10143952980741</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="F11" t="n">
-        <v>63.10143952980741</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="G11" t="n">
-        <v>63.10143952980741</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="H11" t="n">
-        <v>19.92125126071329</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="I11" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="J11" t="n">
-        <v>40.72083660362421</v>
+        <v>40.72083660362419</v>
       </c>
       <c r="K11" t="n">
-        <v>47.33028630706866</v>
+        <v>47.33028630706865</v>
       </c>
       <c r="L11" t="n">
-        <v>89.6511888296078</v>
+        <v>89.65118882960759</v>
       </c>
       <c r="M11" t="n">
-        <v>128.6726430230736</v>
+        <v>89.65118882960759</v>
       </c>
       <c r="N11" t="n">
-        <v>170.9935455456127</v>
+        <v>104.9273110924102</v>
       </c>
       <c r="O11" t="n">
-        <v>170.9935455456127</v>
+        <v>136.845329760522</v>
       </c>
       <c r="P11" t="n">
-        <v>170.9935455456127</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="Q11" t="n">
-        <v>170.9935455456127</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="R11" t="n">
-        <v>170.9935455456127</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="S11" t="n">
-        <v>168.341054047407</v>
+        <v>168.3410540474061</v>
       </c>
       <c r="T11" t="n">
-        <v>170.9935455456127</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="U11" t="n">
-        <v>145.7955135949583</v>
+        <v>145.7955135949575</v>
       </c>
       <c r="V11" t="n">
-        <v>145.7955135949583</v>
+        <v>102.6153253258636</v>
       </c>
       <c r="W11" t="n">
-        <v>102.6153253258642</v>
+        <v>59.43513705676963</v>
       </c>
       <c r="X11" t="n">
-        <v>102.6153253258642</v>
+        <v>46.60005918000616</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.6153253258642</v>
+        <v>3.419870910912238</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="C12" t="n">
-        <v>3.419870910912255</v>
+        <v>30.76086463479548</v>
       </c>
       <c r="D12" t="n">
-        <v>3.419870910912255</v>
+        <v>30.76086463479548</v>
       </c>
       <c r="E12" t="n">
-        <v>3.419870910912255</v>
+        <v>30.76086463479548</v>
       </c>
       <c r="F12" t="n">
-        <v>3.419870910912255</v>
+        <v>30.76086463479548</v>
       </c>
       <c r="G12" t="n">
-        <v>3.419870910912255</v>
+        <v>30.76086463479548</v>
       </c>
       <c r="H12" t="n">
-        <v>3.419870910912255</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="I12" t="n">
-        <v>45.7407734334514</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="J12" t="n">
-        <v>73.08176715733444</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="K12" t="n">
-        <v>73.08176715733444</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="L12" t="n">
-        <v>73.08176715733444</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="M12" t="n">
-        <v>73.08176715733444</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="N12" t="n">
-        <v>73.08176715733444</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="O12" t="n">
-        <v>73.08176715733444</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="P12" t="n">
-        <v>73.08176715733444</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.08176715733444</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="R12" t="n">
-        <v>73.08176715733444</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="S12" t="n">
-        <v>73.08176715733444</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="T12" t="n">
-        <v>73.08176715733444</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="U12" t="n">
-        <v>60.93736189694016</v>
+        <v>60.93736189694015</v>
       </c>
       <c r="V12" t="n">
-        <v>45.3380419905976</v>
+        <v>45.33804199059758</v>
       </c>
       <c r="W12" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="X12" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.419870910912255</v>
+        <v>11.40354909092738</v>
       </c>
       <c r="C13" t="n">
-        <v>3.419870910912255</v>
+        <v>11.40354909092738</v>
       </c>
       <c r="D13" t="n">
-        <v>35.68771855972707</v>
+        <v>11.40354909092738</v>
       </c>
       <c r="E13" t="n">
-        <v>35.68771855972707</v>
+        <v>11.40354909092738</v>
       </c>
       <c r="F13" t="n">
-        <v>35.68771855972707</v>
+        <v>53.72445161346632</v>
       </c>
       <c r="G13" t="n">
-        <v>35.68771855972707</v>
+        <v>53.72445161346632</v>
       </c>
       <c r="H13" t="n">
-        <v>35.68771855972707</v>
+        <v>53.72445161346632</v>
       </c>
       <c r="I13" t="n">
-        <v>35.68771855972707</v>
+        <v>56.72638165629702</v>
       </c>
       <c r="J13" t="n">
-        <v>35.68771855972707</v>
+        <v>56.72638165629702</v>
       </c>
       <c r="K13" t="n">
-        <v>35.68771855972707</v>
+        <v>56.72638165629702</v>
       </c>
       <c r="L13" t="n">
-        <v>35.68771855972707</v>
+        <v>56.72638165629702</v>
       </c>
       <c r="M13" t="n">
-        <v>35.68771855972707</v>
+        <v>99.04728417883597</v>
       </c>
       <c r="N13" t="n">
-        <v>35.68771855972707</v>
+        <v>99.04728417883597</v>
       </c>
       <c r="O13" t="n">
-        <v>78.00862108226622</v>
+        <v>99.04728417883597</v>
       </c>
       <c r="P13" t="n">
-        <v>78.00862108226622</v>
+        <v>99.04728417883597</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.3295236048054</v>
+        <v>99.04728417883597</v>
       </c>
       <c r="R13" t="n">
-        <v>120.3295236048054</v>
+        <v>120.3295236048049</v>
       </c>
       <c r="S13" t="n">
-        <v>109.8847130817538</v>
+        <v>109.8847130817534</v>
       </c>
       <c r="T13" t="n">
-        <v>109.8847130817538</v>
+        <v>109.8847130817534</v>
       </c>
       <c r="U13" t="n">
-        <v>66.70452481265971</v>
+        <v>66.70452481265949</v>
       </c>
       <c r="V13" t="n">
-        <v>46.60005918000638</v>
+        <v>46.60005918000616</v>
       </c>
       <c r="W13" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="X13" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.419870910912255</v>
+        <v>11.40354909092738</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.8133572765186</v>
+        <v>46.60005918000618</v>
       </c>
       <c r="C14" t="n">
-        <v>84.63316900742444</v>
+        <v>46.60005918000618</v>
       </c>
       <c r="D14" t="n">
-        <v>46.60005918000638</v>
+        <v>46.60005918000618</v>
       </c>
       <c r="E14" t="n">
-        <v>46.60005918000638</v>
+        <v>46.60005918000618</v>
       </c>
       <c r="F14" t="n">
-        <v>3.419870910912255</v>
+        <v>46.60005918000618</v>
       </c>
       <c r="G14" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="H14" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="I14" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="J14" t="n">
-        <v>40.72083660362418</v>
+        <v>40.72083660362419</v>
       </c>
       <c r="K14" t="n">
-        <v>57.18939721694891</v>
+        <v>47.33028630706865</v>
       </c>
       <c r="L14" t="n">
-        <v>57.18939721694891</v>
+        <v>47.33028630706865</v>
       </c>
       <c r="M14" t="n">
-        <v>57.18939721694891</v>
+        <v>47.33028630706865</v>
       </c>
       <c r="N14" t="n">
-        <v>99.51029973948806</v>
+        <v>89.65118882960759</v>
       </c>
       <c r="O14" t="n">
-        <v>141.8312022620272</v>
+        <v>99.51029973948741</v>
       </c>
       <c r="P14" t="n">
-        <v>141.8312022620272</v>
+        <v>141.8312022620264</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.8312022620272</v>
+        <v>141.8312022620264</v>
       </c>
       <c r="R14" t="n">
-        <v>170.9935455456127</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="S14" t="n">
-        <v>168.3410540474069</v>
+        <v>168.3410540474062</v>
       </c>
       <c r="T14" t="n">
-        <v>170.9935455456127</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="U14" t="n">
-        <v>170.9935455456127</v>
+        <v>145.7955135949575</v>
       </c>
       <c r="V14" t="n">
-        <v>170.9935455456127</v>
+        <v>102.6153253258636</v>
       </c>
       <c r="W14" t="n">
-        <v>170.9935455456127</v>
+        <v>59.43513705676963</v>
       </c>
       <c r="X14" t="n">
-        <v>170.9935455456127</v>
+        <v>46.60005918000618</v>
       </c>
       <c r="Y14" t="n">
-        <v>170.9935455456127</v>
+        <v>46.60005918000618</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="C15" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="D15" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="E15" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="F15" t="n">
-        <v>30.76086463479538</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="G15" t="n">
-        <v>30.76086463479538</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="H15" t="n">
-        <v>30.76086463479538</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="I15" t="n">
-        <v>30.76086463479538</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="J15" t="n">
-        <v>73.08176715733453</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="K15" t="n">
-        <v>73.08176715733453</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="L15" t="n">
-        <v>73.08176715733453</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="M15" t="n">
-        <v>73.08176715733453</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="N15" t="n">
-        <v>73.08176715733453</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="O15" t="n">
-        <v>73.08176715733453</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="P15" t="n">
-        <v>73.08176715733453</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.08176715733453</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="R15" t="n">
-        <v>73.08176715733453</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="S15" t="n">
-        <v>73.08176715733453</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="T15" t="n">
-        <v>73.08176715733453</v>
+        <v>73.08176715733443</v>
       </c>
       <c r="U15" t="n">
-        <v>60.93736189694022</v>
+        <v>60.93736189694015</v>
       </c>
       <c r="V15" t="n">
-        <v>45.33804199059762</v>
+        <v>45.33804199059758</v>
       </c>
       <c r="W15" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="X15" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="C16" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="D16" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="E16" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="F16" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="G16" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="H16" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="I16" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="J16" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="K16" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="L16" t="n">
-        <v>3.419870910912255</v>
+        <v>56.72638165629702</v>
       </c>
       <c r="M16" t="n">
-        <v>45.7407734334514</v>
+        <v>99.04728417883597</v>
       </c>
       <c r="N16" t="n">
-        <v>45.7407734334514</v>
+        <v>99.04728417883597</v>
       </c>
       <c r="O16" t="n">
-        <v>78.00862108226627</v>
+        <v>99.04728417883597</v>
       </c>
       <c r="P16" t="n">
-        <v>120.3295236048054</v>
+        <v>99.04728417883597</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.3295236048054</v>
+        <v>99.04728417883597</v>
       </c>
       <c r="R16" t="n">
-        <v>120.3295236048054</v>
+        <v>120.3295236048049</v>
       </c>
       <c r="S16" t="n">
-        <v>109.8847130817539</v>
+        <v>109.8847130817534</v>
       </c>
       <c r="T16" t="n">
-        <v>109.8847130817539</v>
+        <v>109.8847130817534</v>
       </c>
       <c r="U16" t="n">
-        <v>66.70452481265974</v>
+        <v>66.70452481265949</v>
       </c>
       <c r="V16" t="n">
-        <v>46.60005918000638</v>
+        <v>46.60005918000616</v>
       </c>
       <c r="W16" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="X16" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>132.9387586726387</v>
+        <v>69.1496936189366</v>
       </c>
       <c r="C17" t="n">
-        <v>132.9387586726387</v>
+        <v>56.71632639124775</v>
       </c>
       <c r="D17" t="n">
-        <v>133.0618198143429</v>
+        <v>56.83938753295192</v>
       </c>
       <c r="E17" t="n">
-        <v>99.14015492962642</v>
+        <v>22.91772264823544</v>
       </c>
       <c r="F17" t="n">
-        <v>55.95996666053225</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="G17" t="n">
-        <v>12.77977839143804</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="H17" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="I17" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="J17" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="K17" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="L17" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="M17" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="N17" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="O17" t="n">
-        <v>45.7407734334514</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="P17" t="n">
-        <v>45.7407734334514</v>
+        <v>88.06167595599013</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.7407734334514</v>
+        <v>88.06167595599013</v>
       </c>
       <c r="R17" t="n">
-        <v>69.50522708608571</v>
+        <v>130.3825784785291</v>
       </c>
       <c r="S17" t="n">
-        <v>69.50522708608571</v>
+        <v>130.3825784785291</v>
       </c>
       <c r="T17" t="n">
-        <v>111.8261296086249</v>
+        <v>154.1470321311632</v>
       </c>
       <c r="U17" t="n">
-        <v>154.147032131164</v>
+        <v>154.1470321311632</v>
       </c>
       <c r="V17" t="n">
-        <v>170.9935455456127</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="W17" t="n">
-        <v>170.9935455456127</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="X17" t="n">
-        <v>170.9935455456127</v>
+        <v>148.8862218396128</v>
       </c>
       <c r="Y17" t="n">
-        <v>132.9387586726387</v>
+        <v>105.7060335705189</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="C18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="D18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="E18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="F18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="G18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="H18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="I18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="J18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="K18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="L18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="M18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="N18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="O18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="P18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="S18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="T18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="U18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="V18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="W18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="X18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="C19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="D19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="E19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="F19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="G19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="H19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="I19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="J19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="K19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="L19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="M19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="N19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="O19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="P19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="R19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="S19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="T19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="U19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="V19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="W19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="X19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.39866292301866</v>
+        <v>69.1496936189362</v>
       </c>
       <c r="C20" t="n">
-        <v>80.39866292301866</v>
+        <v>56.71632639124735</v>
       </c>
       <c r="D20" t="n">
-        <v>80.52172406472283</v>
+        <v>56.83938753295152</v>
       </c>
       <c r="E20" t="n">
-        <v>46.60005918000638</v>
+        <v>46.60005918000616</v>
       </c>
       <c r="F20" t="n">
-        <v>3.419870910912255</v>
+        <v>46.60005918000616</v>
       </c>
       <c r="G20" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="H20" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="I20" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="J20" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="K20" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="L20" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="M20" t="n">
-        <v>3.419870910912255</v>
+        <v>45.74077343345118</v>
       </c>
       <c r="N20" t="n">
-        <v>45.7407734334514</v>
+        <v>88.06167595599013</v>
       </c>
       <c r="O20" t="n">
-        <v>45.7407734334514</v>
+        <v>88.06167595599013</v>
       </c>
       <c r="P20" t="n">
-        <v>45.7407734334514</v>
+        <v>88.06167595599013</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.06167595599055</v>
+        <v>88.06167595599013</v>
       </c>
       <c r="R20" t="n">
-        <v>130.3825784785297</v>
+        <v>128.672643023073</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3825784785297</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3825784785297</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="U20" t="n">
-        <v>154.147032131164</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="V20" t="n">
-        <v>170.9935455456127</v>
+        <v>170.9935455456119</v>
       </c>
       <c r="W20" t="n">
-        <v>170.9935455456127</v>
+        <v>170.993545545612</v>
       </c>
       <c r="X20" t="n">
-        <v>148.8862218396135</v>
+        <v>148.8862218396127</v>
       </c>
       <c r="Y20" t="n">
-        <v>105.7060335705194</v>
+        <v>105.7060335705185</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="C21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="D21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="E21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="F21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="G21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="H21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="I21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="J21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="K21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="L21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="M21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="N21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="O21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="P21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="S21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="T21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="U21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="V21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="W21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="X21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="C22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="D22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="E22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="F22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="G22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="H22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="I22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="J22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="K22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="L22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="M22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="N22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="O22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="P22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="R22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="S22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="T22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="U22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="V22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="W22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="X22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.419870910912255</v>
+        <v>3.419870910912238</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>205.8641399635413</v>
+        <v>205.8641399635416</v>
       </c>
       <c r="C23" t="n">
-        <v>193.4307727358525</v>
+        <v>193.4307727358528</v>
       </c>
       <c r="D23" t="n">
-        <v>193.5538338775567</v>
+        <v>193.5538338775568</v>
       </c>
       <c r="E23" t="n">
-        <v>159.6321689928401</v>
+        <v>159.6321689928404</v>
       </c>
       <c r="F23" t="n">
-        <v>93.66975907945988</v>
+        <v>93.66975907945971</v>
       </c>
       <c r="G23" t="n">
         <v>15.54721312047717</v>
@@ -5993,46 +5993,46 @@
         <v>6.187305639951408</v>
       </c>
       <c r="L23" t="n">
-        <v>6.187305639951408</v>
+        <v>82.75521293435007</v>
       </c>
       <c r="M23" t="n">
-        <v>6.187305639951408</v>
+        <v>82.75521293435007</v>
       </c>
       <c r="N23" t="n">
-        <v>6.187305639951408</v>
+        <v>159.3231202287487</v>
       </c>
       <c r="O23" t="n">
-        <v>6.187305639951408</v>
+        <v>159.3231202287487</v>
       </c>
       <c r="P23" t="n">
-        <v>6.187305639951408</v>
+        <v>215.950861288723</v>
       </c>
       <c r="Q23" t="n">
-        <v>82.75521293435007</v>
+        <v>215.950861288723</v>
       </c>
       <c r="R23" t="n">
-        <v>82.75521293435007</v>
+        <v>215.950861288723</v>
       </c>
       <c r="S23" t="n">
-        <v>159.3231202287487</v>
+        <v>215.950861288723</v>
       </c>
       <c r="T23" t="n">
-        <v>232.7973747031717</v>
+        <v>215.950861288723</v>
       </c>
       <c r="U23" t="n">
-        <v>309.3652819975704</v>
+        <v>292.5187685831216</v>
       </c>
       <c r="V23" t="n">
         <v>309.3652819975704</v>
       </c>
       <c r="W23" t="n">
-        <v>309.3652819975704</v>
+        <v>309.3652819975705</v>
       </c>
       <c r="X23" t="n">
-        <v>287.2579582915711</v>
+        <v>287.2579582915714</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.4204799151236</v>
+        <v>242.4204799151239</v>
       </c>
     </row>
     <row r="24">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>935.1168486413633</v>
+        <v>935.1168486413624</v>
       </c>
       <c r="C26" t="n">
-        <v>808.8543201837313</v>
+        <v>808.8543201837304</v>
       </c>
       <c r="D26" t="n">
-        <v>695.1507187351413</v>
+        <v>695.15071873514</v>
       </c>
       <c r="E26" t="n">
-        <v>547.3998926204816</v>
+        <v>547.3998926204804</v>
       </c>
       <c r="F26" t="n">
-        <v>367.6083214771581</v>
+        <v>367.6083214771567</v>
       </c>
       <c r="G26" t="n">
-        <v>172.0059143182777</v>
+        <v>172.0059143182768</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81684560780883</v>
+        <v>48.81684560780801</v>
       </c>
       <c r="I26" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="J26" t="n">
-        <v>178.0952915159087</v>
+        <v>178.0952915159086</v>
       </c>
       <c r="K26" t="n">
-        <v>392.6505062920069</v>
+        <v>392.6505062920068</v>
       </c>
       <c r="L26" t="n">
-        <v>501.0563384851015</v>
+        <v>660.168244068313</v>
       </c>
       <c r="M26" t="n">
-        <v>802.472094992801</v>
+        <v>961.5840005760125</v>
       </c>
       <c r="N26" t="n">
-        <v>1098.31501620438</v>
+        <v>1257.426921787591</v>
       </c>
       <c r="O26" t="n">
-        <v>1247.900550396958</v>
+        <v>1453.947806531367</v>
       </c>
       <c r="P26" t="n">
-        <v>1453.947806531368</v>
+        <v>1453.947806531367</v>
       </c>
       <c r="Q26" t="n">
-        <v>1586.610919616808</v>
+        <v>1586.610919616807</v>
       </c>
       <c r="R26" t="n">
-        <v>1615.773262900394</v>
+        <v>1615.773262900393</v>
       </c>
       <c r="S26" t="n">
-        <v>1613.120771402188</v>
+        <v>1613.120771402187</v>
       </c>
       <c r="T26" t="n">
-        <v>1615.773262900394</v>
+        <v>1615.773262900393</v>
       </c>
       <c r="U26" t="n">
-        <v>1590.57523094974</v>
+        <v>1590.575230949739</v>
       </c>
       <c r="V26" t="n">
-        <v>1493.934635595165</v>
+        <v>1493.934635595164</v>
       </c>
       <c r="W26" t="n">
-        <v>1380.105474365222</v>
+        <v>1380.105474365221</v>
       </c>
       <c r="X26" t="n">
         <v>1244.168989429279</v>
       </c>
       <c r="Y26" t="n">
-        <v>1085.502349822889</v>
+        <v>1085.502349822888</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="C27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="D27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="E27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="F27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="G27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="H27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="I27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="J27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="K27" t="n">
-        <v>69.09804594523348</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="L27" t="n">
-        <v>101.9773615044298</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="M27" t="n">
-        <v>101.9773615044298</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="N27" t="n">
-        <v>101.9773615044298</v>
+        <v>101.97736150443</v>
       </c>
       <c r="O27" t="n">
-        <v>101.9773615044298</v>
+        <v>101.97736150443</v>
       </c>
       <c r="P27" t="n">
-        <v>101.9773615044298</v>
+        <v>101.97736150443</v>
       </c>
       <c r="Q27" t="n">
-        <v>101.9773615044298</v>
+        <v>101.97736150443</v>
       </c>
       <c r="R27" t="n">
-        <v>101.9773615044298</v>
+        <v>101.97736150443</v>
       </c>
       <c r="S27" t="n">
-        <v>101.9773615044298</v>
+        <v>101.97736150443</v>
       </c>
       <c r="T27" t="n">
-        <v>101.9773615044298</v>
+        <v>101.97736150443</v>
       </c>
       <c r="U27" t="n">
-        <v>89.83295624403563</v>
+        <v>89.83295624403573</v>
       </c>
       <c r="V27" t="n">
-        <v>74.23363633769314</v>
+        <v>74.23363633769318</v>
       </c>
       <c r="W27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="X27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="Y27" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.56874266988974</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="C28" t="n">
-        <v>35.56874266988974</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="D28" t="n">
-        <v>35.56874266988974</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="E28" t="n">
-        <v>35.56874266988974</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="F28" t="n">
-        <v>35.56874266988974</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="G28" t="n">
-        <v>35.56874266988974</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="H28" t="n">
-        <v>35.56874266988974</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="I28" t="n">
-        <v>35.56874266988974</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="J28" t="n">
-        <v>35.56874266988974</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="K28" t="n">
-        <v>96.2243051913389</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="L28" t="n">
-        <v>96.2243051913389</v>
+        <v>192.7197044391736</v>
       </c>
       <c r="M28" t="n">
-        <v>96.2243051913389</v>
+        <v>192.7197044391736</v>
       </c>
       <c r="N28" t="n">
-        <v>96.2243051913389</v>
+        <v>192.7197044391736</v>
       </c>
       <c r="O28" t="n">
-        <v>96.2243051913389</v>
+        <v>192.7197044391736</v>
       </c>
       <c r="P28" t="n">
-        <v>96.2243051913389</v>
+        <v>192.7197044391736</v>
       </c>
       <c r="Q28" t="n">
-        <v>192.7197044391734</v>
+        <v>192.7197044391736</v>
       </c>
       <c r="R28" t="n">
-        <v>192.7197044391734</v>
+        <v>192.7197044391736</v>
       </c>
       <c r="S28" t="n">
-        <v>182.274893916122</v>
+        <v>182.2748939161221</v>
       </c>
       <c r="T28" t="n">
-        <v>182.274893916122</v>
+        <v>182.2748939161221</v>
       </c>
       <c r="U28" t="n">
-        <v>118.1826711747138</v>
+        <v>118.1826711747139</v>
       </c>
       <c r="V28" t="n">
-        <v>98.07820554206054</v>
+        <v>98.07820554206059</v>
       </c>
       <c r="W28" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="X28" t="n">
-        <v>35.56874266988974</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.56874266988974</v>
+        <v>32.31546525800786</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>935.1168486413629</v>
+        <v>935.1168486413626</v>
       </c>
       <c r="C29" t="n">
-        <v>808.8543201837308</v>
+        <v>808.8543201837306</v>
       </c>
       <c r="D29" t="n">
-        <v>695.1507187351408</v>
+        <v>695.1507187351409</v>
       </c>
       <c r="E29" t="n">
         <v>547.3998926204813</v>
@@ -6455,49 +6455,49 @@
         <v>172.0059143182777</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81684560780898</v>
+        <v>48.81684560780896</v>
       </c>
       <c r="I29" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="J29" t="n">
         <v>178.0952915159084</v>
       </c>
       <c r="K29" t="n">
-        <v>233.538600708791</v>
+        <v>392.6505062920062</v>
       </c>
       <c r="L29" t="n">
-        <v>501.0563384850969</v>
+        <v>660.1682440683121</v>
       </c>
       <c r="M29" t="n">
-        <v>802.472094992796</v>
+        <v>961.5840005760112</v>
       </c>
       <c r="N29" t="n">
-        <v>1098.315016204374</v>
+        <v>1034.473383521548</v>
       </c>
       <c r="O29" t="n">
-        <v>1353.186573138528</v>
+        <v>1247.900550396958</v>
       </c>
       <c r="P29" t="n">
-        <v>1559.233829272938</v>
+        <v>1453.947806531367</v>
       </c>
       <c r="Q29" t="n">
-        <v>1615.773262900394</v>
+        <v>1586.610919616808</v>
       </c>
       <c r="R29" t="n">
-        <v>1615.773262900394</v>
+        <v>1615.773262900393</v>
       </c>
       <c r="S29" t="n">
-        <v>1613.120771402188</v>
+        <v>1613.120771402187</v>
       </c>
       <c r="T29" t="n">
-        <v>1615.773262900394</v>
+        <v>1615.773262900393</v>
       </c>
       <c r="U29" t="n">
-        <v>1590.57523094974</v>
+        <v>1590.575230949739</v>
       </c>
       <c r="V29" t="n">
-        <v>1493.934635595165</v>
+        <v>1493.934635595164</v>
       </c>
       <c r="W29" t="n">
         <v>1380.105474365221</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="C30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="D30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="E30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="F30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="G30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="H30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="I30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="J30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="K30" t="n">
-        <v>69.09804594523328</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="L30" t="n">
-        <v>101.97736150443</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="M30" t="n">
-        <v>101.97736150443</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="N30" t="n">
-        <v>101.97736150443</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="O30" t="n">
-        <v>101.97736150443</v>
+        <v>91.87451054035554</v>
       </c>
       <c r="P30" t="n">
-        <v>101.97736150443</v>
+        <v>91.87451054035554</v>
       </c>
       <c r="Q30" t="n">
-        <v>101.97736150443</v>
+        <v>91.87451054035554</v>
       </c>
       <c r="R30" t="n">
-        <v>101.97736150443</v>
+        <v>91.87451054035554</v>
       </c>
       <c r="S30" t="n">
-        <v>101.97736150443</v>
+        <v>91.87451054035554</v>
       </c>
       <c r="T30" t="n">
         <v>101.97736150443</v>
       </c>
       <c r="U30" t="n">
-        <v>89.83295624403574</v>
+        <v>89.83295624403573</v>
       </c>
       <c r="V30" t="n">
-        <v>74.2336363376932</v>
+        <v>74.23363633769318</v>
       </c>
       <c r="W30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="X30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="Y30" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.29914343802305</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="C31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="D31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="E31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="F31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="G31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="H31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="I31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="J31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="K31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="L31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="M31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="N31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="O31" t="n">
-        <v>98.46007254181232</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="P31" t="n">
-        <v>98.46007254181232</v>
+        <v>192.7197044391737</v>
       </c>
       <c r="Q31" t="n">
         <v>192.7197044391737</v>
@@ -6646,25 +6646,25 @@
         <v>192.7197044391737</v>
       </c>
       <c r="S31" t="n">
-        <v>182.2748939161222</v>
+        <v>182.2748939161221</v>
       </c>
       <c r="T31" t="n">
-        <v>182.2748939161222</v>
+        <v>182.2748939161221</v>
       </c>
       <c r="U31" t="n">
         <v>118.1826711747139</v>
       </c>
       <c r="V31" t="n">
-        <v>98.0782055420606</v>
+        <v>98.07820554206059</v>
       </c>
       <c r="W31" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="X31" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="Y31" t="n">
-        <v>40.29914343802305</v>
+        <v>32.31546525800786</v>
       </c>
     </row>
     <row r="32">
@@ -6680,61 +6680,61 @@
         <v>808.8543201837308</v>
       </c>
       <c r="D32" t="n">
-        <v>695.1507187351407</v>
+        <v>695.1507187351408</v>
       </c>
       <c r="E32" t="n">
-        <v>547.3998926204811</v>
+        <v>547.3998926204812</v>
       </c>
       <c r="F32" t="n">
-        <v>367.6083214771575</v>
+        <v>367.6083214771577</v>
       </c>
       <c r="G32" t="n">
-        <v>172.0059143182779</v>
+        <v>172.0059143182777</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81684560780889</v>
+        <v>48.81684560780879</v>
       </c>
       <c r="I32" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="J32" t="n">
-        <v>178.0952915159087</v>
+        <v>75.52281956014571</v>
       </c>
       <c r="K32" t="n">
-        <v>392.6505062920068</v>
+        <v>290.0780343362439</v>
       </c>
       <c r="L32" t="n">
-        <v>424.9326590271114</v>
+        <v>557.5957721125503</v>
       </c>
       <c r="M32" t="n">
-        <v>726.3484155348109</v>
+        <v>859.0115286202499</v>
       </c>
       <c r="N32" t="n">
-        <v>1022.19133674639</v>
+        <v>1154.854449831829</v>
       </c>
       <c r="O32" t="n">
-        <v>1277.062893680543</v>
+        <v>1409.726006765983</v>
       </c>
       <c r="P32" t="n">
-        <v>1483.110149814954</v>
+        <v>1615.773262900393</v>
       </c>
       <c r="Q32" t="n">
-        <v>1615.773262900394</v>
+        <v>1615.773262900393</v>
       </c>
       <c r="R32" t="n">
-        <v>1615.773262900394</v>
+        <v>1615.773262900393</v>
       </c>
       <c r="S32" t="n">
-        <v>1613.120771402188</v>
+        <v>1613.120771402187</v>
       </c>
       <c r="T32" t="n">
-        <v>1615.773262900394</v>
+        <v>1615.773262900393</v>
       </c>
       <c r="U32" t="n">
         <v>1590.575230949739</v>
       </c>
       <c r="V32" t="n">
-        <v>1493.934635595165</v>
+        <v>1493.934635595164</v>
       </c>
       <c r="W32" t="n">
         <v>1380.105474365221</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="C33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="D33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="E33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="F33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="G33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="H33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="I33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="J33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="K33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="L33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="M33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="N33" t="n">
-        <v>101.97736150443</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="O33" t="n">
-        <v>101.97736150443</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="P33" t="n">
-        <v>101.97736150443</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="Q33" t="n">
-        <v>101.97736150443</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="R33" t="n">
-        <v>101.97736150443</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="S33" t="n">
-        <v>101.97736150443</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="T33" t="n">
-        <v>101.97736150443</v>
+        <v>101.9773615044297</v>
       </c>
       <c r="U33" t="n">
-        <v>89.83295624403574</v>
+        <v>89.83295624403556</v>
       </c>
       <c r="V33" t="n">
-        <v>74.2336363376932</v>
+        <v>74.2336363376931</v>
       </c>
       <c r="W33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="X33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="Y33" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.33606081754608</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="C34" t="n">
-        <v>113.4969899213354</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="D34" t="n">
-        <v>192.7197044391737</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="E34" t="n">
-        <v>192.7197044391737</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="F34" t="n">
-        <v>192.7197044391737</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="G34" t="n">
-        <v>192.7197044391737</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="H34" t="n">
-        <v>192.7197044391737</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="I34" t="n">
-        <v>192.7197044391737</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="J34" t="n">
-        <v>192.7197044391737</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="K34" t="n">
-        <v>192.7197044391737</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="L34" t="n">
-        <v>192.7197044391737</v>
+        <v>192.7197044391733</v>
       </c>
       <c r="M34" t="n">
-        <v>192.7197044391737</v>
+        <v>192.7197044391733</v>
       </c>
       <c r="N34" t="n">
-        <v>192.7197044391737</v>
+        <v>192.7197044391733</v>
       </c>
       <c r="O34" t="n">
-        <v>192.7197044391737</v>
+        <v>192.7197044391733</v>
       </c>
       <c r="P34" t="n">
-        <v>192.7197044391737</v>
+        <v>192.7197044391733</v>
       </c>
       <c r="Q34" t="n">
-        <v>192.7197044391737</v>
+        <v>192.7197044391733</v>
       </c>
       <c r="R34" t="n">
-        <v>192.7197044391737</v>
+        <v>192.7197044391733</v>
       </c>
       <c r="S34" t="n">
-        <v>182.2748939161222</v>
+        <v>182.2748939161219</v>
       </c>
       <c r="T34" t="n">
-        <v>182.2748939161222</v>
+        <v>182.2748939161219</v>
       </c>
       <c r="U34" t="n">
-        <v>118.1826711747139</v>
+        <v>118.1826711747137</v>
       </c>
       <c r="V34" t="n">
-        <v>98.0782055420606</v>
+        <v>98.0782055420605</v>
       </c>
       <c r="W34" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="X34" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.31546525800788</v>
+        <v>32.31546525800786</v>
       </c>
     </row>
     <row r="35">
@@ -6935,31 +6935,31 @@
         <v>28.89559434709557</v>
       </c>
       <c r="J35" t="n">
-        <v>187.3091866441865</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="K35" t="n">
-        <v>206.5524023868211</v>
+        <v>231.6192961876058</v>
       </c>
       <c r="L35" t="n">
-        <v>246.4229130364372</v>
+        <v>511.7708000031023</v>
       </c>
       <c r="M35" t="n">
-        <v>560.4724355833268</v>
+        <v>825.8203225499919</v>
       </c>
       <c r="N35" t="n">
-        <v>868.9491228340958</v>
+        <v>898.7097054955287</v>
       </c>
       <c r="O35" t="n">
-        <v>1136.45444580744</v>
+        <v>1013.685390074578</v>
       </c>
       <c r="P35" t="n">
-        <v>1355.13546798104</v>
+        <v>1232.366412248178</v>
       </c>
       <c r="Q35" t="n">
-        <v>1429.493459817383</v>
+        <v>1377.663291372808</v>
       </c>
       <c r="R35" t="n">
-        <v>1429.493459817383</v>
+        <v>1419.459400695584</v>
       </c>
       <c r="S35" t="n">
         <v>1429.493459817383</v>
@@ -7038,7 +7038,7 @@
         <v>28.89559434709557</v>
       </c>
       <c r="R36" t="n">
-        <v>28.89559434709557</v>
+        <v>37.89590300144305</v>
       </c>
       <c r="S36" t="n">
         <v>37.89590300144305</v>
@@ -7081,28 +7081,28 @@
         <v>28.89559434709557</v>
       </c>
       <c r="F37" t="n">
-        <v>126.9452852560654</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="G37" t="n">
-        <v>126.9452852560654</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="H37" t="n">
-        <v>126.9452852560654</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="I37" t="n">
-        <v>126.9452852560654</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9452852560654</v>
+        <v>123.4339585656035</v>
       </c>
       <c r="K37" t="n">
-        <v>126.9452852560654</v>
+        <v>123.4339585656035</v>
       </c>
       <c r="L37" t="n">
-        <v>126.9452852560654</v>
+        <v>123.4339585656035</v>
       </c>
       <c r="M37" t="n">
-        <v>126.9452852560654</v>
+        <v>140.1841750125862</v>
       </c>
       <c r="N37" t="n">
         <v>140.1841750125862</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>841.4649990809952</v>
+        <v>841.4649990809955</v>
       </c>
       <c r="C38" t="n">
-        <v>728.0927532875712</v>
+        <v>728.0927532875713</v>
       </c>
       <c r="D38" t="n">
-        <v>627.2794345031889</v>
+        <v>627.2794345031893</v>
       </c>
       <c r="E38" t="n">
-        <v>492.4188910527369</v>
+        <v>492.4188910527375</v>
       </c>
       <c r="F38" t="n">
-        <v>325.5176025736212</v>
+        <v>325.5176025736217</v>
       </c>
       <c r="G38" t="n">
-        <v>142.8054780789491</v>
+        <v>142.8054780789497</v>
       </c>
       <c r="H38" t="n">
         <v>32.50669203268869</v>
@@ -7178,37 +7178,37 @@
         <v>187.3091866441865</v>
       </c>
       <c r="L38" t="n">
-        <v>467.460690459683</v>
+        <v>374.5274191462033</v>
       </c>
       <c r="M38" t="n">
-        <v>781.5102130065726</v>
+        <v>688.576941693093</v>
       </c>
       <c r="N38" t="n">
-        <v>1089.986900257341</v>
+        <v>997.0536289438618</v>
       </c>
       <c r="O38" t="n">
-        <v>1089.986900257341</v>
+        <v>1028.971647611974</v>
       </c>
       <c r="P38" t="n">
-        <v>1274.162521570954</v>
+        <v>1247.652669785574</v>
       </c>
       <c r="Q38" t="n">
-        <v>1419.459400695584</v>
+        <v>1392.949548910204</v>
       </c>
       <c r="R38" t="n">
-        <v>1419.459400695584</v>
+        <v>1434.74565823298</v>
       </c>
       <c r="S38" t="n">
-        <v>1429.493459817383</v>
+        <v>1444.779717354779</v>
       </c>
       <c r="T38" t="n">
         <v>1444.779717354779</v>
       </c>
       <c r="U38" t="n">
-        <v>1432.471968068332</v>
+        <v>1432.471968068333</v>
       </c>
       <c r="V38" t="n">
-        <v>1348.721655377965</v>
+        <v>1348.721655377966</v>
       </c>
       <c r="W38" t="n">
         <v>1247.78277681223</v>
@@ -7217,7 +7217,7 @@
         <v>1124.736574540496</v>
       </c>
       <c r="Y38" t="n">
-        <v>978.9602175983127</v>
+        <v>978.9602175983131</v>
       </c>
     </row>
     <row r="39">
@@ -7260,22 +7260,22 @@
         <v>28.89559434709557</v>
       </c>
       <c r="M39" t="n">
-        <v>28.89559434709557</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="N39" t="n">
-        <v>28.89559434709557</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="O39" t="n">
-        <v>28.89559434709557</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="P39" t="n">
-        <v>28.89559434709557</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.89559434709557</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="R39" t="n">
-        <v>28.89559434709557</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="S39" t="n">
         <v>60.63252000470765</v>
@@ -7318,46 +7318,46 @@
         <v>28.89559434709557</v>
       </c>
       <c r="F40" t="n">
-        <v>89.83419365040058</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="G40" t="n">
-        <v>89.83419365040058</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="H40" t="n">
-        <v>89.83419365040058</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="I40" t="n">
-        <v>89.83419365040058</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="J40" t="n">
-        <v>89.83419365040058</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="K40" t="n">
-        <v>89.83419365040058</v>
+        <v>128.9327364146686</v>
       </c>
       <c r="L40" t="n">
-        <v>89.83419365040058</v>
+        <v>128.9327364146686</v>
       </c>
       <c r="M40" t="n">
-        <v>89.83419365040058</v>
+        <v>128.9327364146686</v>
       </c>
       <c r="N40" t="n">
-        <v>89.83419365040058</v>
+        <v>128.9327364146686</v>
       </c>
       <c r="O40" t="n">
-        <v>89.83419365040058</v>
+        <v>128.9327364146686</v>
       </c>
       <c r="P40" t="n">
-        <v>89.83419365040058</v>
+        <v>128.9327364146686</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.83419365040058</v>
+        <v>128.9327364146686</v>
       </c>
       <c r="R40" t="n">
-        <v>123.7501991155597</v>
+        <v>128.9327364146686</v>
       </c>
       <c r="S40" t="n">
-        <v>126.1470063611071</v>
+        <v>128.9327364146686</v>
       </c>
       <c r="T40" t="n">
         <v>140.1841750125862</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>841.4649990809955</v>
+        <v>841.4649990809949</v>
       </c>
       <c r="C41" t="n">
-        <v>728.0927532875712</v>
+        <v>728.0927532875706</v>
       </c>
       <c r="D41" t="n">
-        <v>627.279434503189</v>
+        <v>627.2794345031887</v>
       </c>
       <c r="E41" t="n">
-        <v>492.4188910527373</v>
+        <v>492.4188910527369</v>
       </c>
       <c r="F41" t="n">
-        <v>325.5176025736216</v>
+        <v>325.5176025736212</v>
       </c>
       <c r="G41" t="n">
-        <v>142.8054780789495</v>
+        <v>142.8054780789491</v>
       </c>
       <c r="H41" t="n">
         <v>32.50669203268869</v>
@@ -7412,16 +7412,16 @@
         <v>187.3091866441865</v>
       </c>
       <c r="K41" t="n">
-        <v>414.4981674594748</v>
+        <v>187.3091866441865</v>
       </c>
       <c r="L41" t="n">
-        <v>694.6496712749713</v>
+        <v>198.8893087957349</v>
       </c>
       <c r="M41" t="n">
-        <v>981.7673714064657</v>
+        <v>437.7033798504647</v>
       </c>
       <c r="N41" t="n">
-        <v>981.7673714064657</v>
+        <v>746.1800671012336</v>
       </c>
       <c r="O41" t="n">
         <v>1013.685390074578</v>
@@ -7445,16 +7445,16 @@
         <v>1432.471968068332</v>
       </c>
       <c r="V41" t="n">
-        <v>1348.721655377966</v>
+        <v>1348.721655377965</v>
       </c>
       <c r="W41" t="n">
-        <v>1247.782776812231</v>
+        <v>1247.78277681223</v>
       </c>
       <c r="X41" t="n">
-        <v>1124.736574540496</v>
+        <v>1124.736574540495</v>
       </c>
       <c r="Y41" t="n">
-        <v>978.9602175983133</v>
+        <v>978.9602175983124</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>28.89559434709557</v>
       </c>
       <c r="K42" t="n">
-        <v>60.63252000470765</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="L42" t="n">
-        <v>60.63252000470765</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="M42" t="n">
-        <v>60.63252000470765</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="N42" t="n">
-        <v>60.63252000470765</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="O42" t="n">
         <v>60.63252000470765</v>
@@ -7555,40 +7555,40 @@
         <v>28.89559434709557</v>
       </c>
       <c r="F43" t="n">
-        <v>28.89559434709557</v>
+        <v>106.268169547427</v>
       </c>
       <c r="G43" t="n">
-        <v>28.89559434709557</v>
+        <v>106.268169547427</v>
       </c>
       <c r="H43" t="n">
-        <v>28.89559434709557</v>
+        <v>106.268169547427</v>
       </c>
       <c r="I43" t="n">
-        <v>28.89559434709557</v>
+        <v>106.268169547427</v>
       </c>
       <c r="J43" t="n">
-        <v>28.89559434709557</v>
+        <v>106.268169547427</v>
       </c>
       <c r="K43" t="n">
-        <v>28.89559434709557</v>
+        <v>106.268169547427</v>
       </c>
       <c r="L43" t="n">
-        <v>28.89559434709557</v>
+        <v>106.268169547427</v>
       </c>
       <c r="M43" t="n">
-        <v>28.89559434709557</v>
+        <v>106.268169547427</v>
       </c>
       <c r="N43" t="n">
-        <v>28.89559434709557</v>
+        <v>106.268169547427</v>
       </c>
       <c r="O43" t="n">
-        <v>140.1841750125862</v>
+        <v>106.268169547427</v>
       </c>
       <c r="P43" t="n">
-        <v>140.1841750125862</v>
+        <v>106.268169547427</v>
       </c>
       <c r="Q43" t="n">
-        <v>140.1841750125862</v>
+        <v>106.268169547427</v>
       </c>
       <c r="R43" t="n">
         <v>140.1841750125862</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>841.4649990809962</v>
+        <v>841.4649990809952</v>
       </c>
       <c r="C44" t="n">
-        <v>728.0927532875721</v>
+        <v>728.0927532875712</v>
       </c>
       <c r="D44" t="n">
-        <v>627.2794345031898</v>
+        <v>627.279434503189</v>
       </c>
       <c r="E44" t="n">
-        <v>492.4188910527378</v>
+        <v>492.4188910527373</v>
       </c>
       <c r="F44" t="n">
-        <v>325.5176025736221</v>
+        <v>325.5176025736216</v>
       </c>
       <c r="G44" t="n">
-        <v>142.80547807895</v>
+        <v>142.8054780789498</v>
       </c>
       <c r="H44" t="n">
-        <v>32.50669203268863</v>
+        <v>32.50669203268857</v>
       </c>
       <c r="I44" t="n">
         <v>28.89559434709557</v>
       </c>
       <c r="J44" t="n">
-        <v>187.3091866441866</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="K44" t="n">
-        <v>414.4981674594749</v>
+        <v>256.0845751623838</v>
       </c>
       <c r="L44" t="n">
-        <v>529.4278679245815</v>
+        <v>306.0870680380525</v>
       </c>
       <c r="M44" t="n">
-        <v>843.4773904714712</v>
+        <v>620.1365905849422</v>
       </c>
       <c r="N44" t="n">
-        <v>1151.95407772224</v>
+        <v>928.613277835711</v>
       </c>
       <c r="O44" t="n">
-        <v>1419.459400695584</v>
+        <v>1196.118600809055</v>
       </c>
       <c r="P44" t="n">
-        <v>1419.459400695584</v>
+        <v>1392.949548910204</v>
       </c>
       <c r="Q44" t="n">
-        <v>1419.459400695584</v>
+        <v>1392.949548910204</v>
       </c>
       <c r="R44" t="n">
-        <v>1419.459400695584</v>
+        <v>1434.74565823298</v>
       </c>
       <c r="S44" t="n">
-        <v>1429.493459817383</v>
+        <v>1444.779717354779</v>
       </c>
       <c r="T44" t="n">
         <v>1444.779717354779</v>
       </c>
       <c r="U44" t="n">
-        <v>1432.471968068333</v>
+        <v>1432.471968068332</v>
       </c>
       <c r="V44" t="n">
-        <v>1348.721655377966</v>
+        <v>1348.721655377965</v>
       </c>
       <c r="W44" t="n">
-        <v>1247.782776812231</v>
+        <v>1247.78277681223</v>
       </c>
       <c r="X44" t="n">
-        <v>1124.736574540497</v>
+        <v>1124.736574540496</v>
       </c>
       <c r="Y44" t="n">
-        <v>978.9602175983138</v>
+        <v>978.9602175983127</v>
       </c>
     </row>
     <row r="45">
@@ -7710,58 +7710,58 @@
         <v>28.89559434709557</v>
       </c>
       <c r="E45" t="n">
-        <v>28.89559434709557</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="F45" t="n">
-        <v>28.89559434709557</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="G45" t="n">
-        <v>28.89559434709557</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="H45" t="n">
-        <v>28.89559434709557</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="I45" t="n">
-        <v>37.89590300144289</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="J45" t="n">
-        <v>37.89590300144289</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="K45" t="n">
-        <v>37.89590300144289</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="L45" t="n">
-        <v>37.89590300144289</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="M45" t="n">
-        <v>37.89590300144289</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="N45" t="n">
-        <v>37.89590300144289</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="O45" t="n">
-        <v>37.89590300144289</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="P45" t="n">
-        <v>37.89590300144289</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.89590300144289</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="R45" t="n">
-        <v>37.89590300144289</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="S45" t="n">
-        <v>37.89590300144289</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="T45" t="n">
-        <v>60.63252000470754</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="U45" t="n">
-        <v>60.63252000470754</v>
+        <v>60.63252000470765</v>
       </c>
       <c r="V45" t="n">
-        <v>57.92348276257295</v>
+        <v>57.923482762573</v>
       </c>
       <c r="W45" t="n">
         <v>28.89559434709557</v>
@@ -7822,25 +7822,25 @@
         <v>28.89559434709557</v>
       </c>
       <c r="P46" t="n">
-        <v>31.05500972556132</v>
+        <v>28.89559434709557</v>
       </c>
       <c r="Q46" t="n">
-        <v>140.184175012586</v>
+        <v>92.23100089594797</v>
       </c>
       <c r="R46" t="n">
-        <v>140.184175012586</v>
+        <v>126.1470063611071</v>
       </c>
       <c r="S46" t="n">
-        <v>140.184175012586</v>
+        <v>126.1470063611071</v>
       </c>
       <c r="T46" t="n">
-        <v>140.184175012586</v>
+        <v>140.1841750125862</v>
       </c>
       <c r="U46" t="n">
-        <v>88.9822349353857</v>
+        <v>88.98223493538582</v>
       </c>
       <c r="V46" t="n">
-        <v>81.76805196694035</v>
+        <v>81.7680519669404</v>
       </c>
       <c r="W46" t="n">
         <v>28.89559434709557</v>
@@ -8693,25 +8693,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>268.378510475434</v>
+        <v>268.3785104754338</v>
       </c>
       <c r="M11" t="n">
-        <v>251.4456140991213</v>
+        <v>212.0300038026913</v>
       </c>
       <c r="N11" t="n">
-        <v>252.5235540664428</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>214.5180945611763</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3970213452116269</v>
+        <v>34.89016860287816</v>
       </c>
       <c r="Q11" t="n">
         <v>3.57696941687027</v>
       </c>
       <c r="R11" t="n">
-        <v>13.12732767003044</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>13.38556459434924</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>92.91209949840987</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>123.3044588737333</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8857,10 +8857,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>9.95869788876799</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>225.6301240890308</v>
+        <v>98.75697878944386</v>
       </c>
       <c r="M14" t="n">
         <v>212.0300038026913</v>
       </c>
       <c r="N14" t="n">
-        <v>252.5235540664428</v>
+        <v>252.5235540664426</v>
       </c>
       <c r="O14" t="n">
-        <v>56.26793862883279</v>
+        <v>224.4767924499438</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>43.14540773161461</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.576969416870298</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9887,7 +9887,7 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O26" t="n">
-        <v>140.4089995374752</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P26" t="n">
         <v>208.5255628951208</v>
@@ -9954,16 +9954,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>134.2193516778625</v>
       </c>
       <c r="L27" t="n">
-        <v>156.6015682396946</v>
+        <v>123.3901383819205</v>
       </c>
       <c r="M27" t="n">
-        <v>120.1365532011613</v>
+        <v>95.76327309969412</v>
       </c>
       <c r="N27" t="n">
-        <v>105.5601024109537</v>
+        <v>175.9256541750165</v>
       </c>
       <c r="O27" t="n">
         <v>123.9488407068815</v>
@@ -9972,7 +9972,7 @@
         <v>123.3044588737333</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10033,7 +10033,7 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>105.2836065989273</v>
@@ -10130,10 +10130,10 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q29" t="n">
-        <v>60.68750843450327</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R29" t="n">
-        <v>13.12732767003056</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,19 +10191,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>134.2193516778627</v>
       </c>
       <c r="L30" t="n">
-        <v>156.6015682396952</v>
+        <v>123.3901383819207</v>
       </c>
       <c r="M30" t="n">
         <v>120.1365532011617</v>
       </c>
       <c r="N30" t="n">
-        <v>105.560102410954</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>123.9488407068818</v>
+        <v>184.109492507233</v>
       </c>
       <c r="P30" t="n">
         <v>123.3044588737335</v>
@@ -10270,13 +10270,13 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K31" t="n">
-        <v>69.16996059133484</v>
+        <v>40.59008969654256</v>
       </c>
       <c r="L31" t="n">
         <v>105.2836065989273</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>111.3378805152112</v>
@@ -10285,7 +10285,7 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P31" t="n">
-        <v>87.48425302749862</v>
+        <v>83.53065394960835</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10352,7 +10352,7 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>232.1781783544319</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M32" t="n">
         <v>291.2847697033555</v>
@@ -10370,7 +10370,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R32" t="n">
-        <v>13.12732767003041</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>81.70699090058493</v>
@@ -10431,13 +10431,13 @@
         <v>134.2193516778625</v>
       </c>
       <c r="L33" t="n">
-        <v>123.3901383819205</v>
+        <v>67.91142065548567</v>
       </c>
       <c r="M33" t="n">
         <v>120.1365532011613</v>
       </c>
       <c r="N33" t="n">
-        <v>175.9256541750165</v>
+        <v>175.9256541750162</v>
       </c>
       <c r="O33" t="n">
         <v>123.9488407068815</v>
@@ -10513,7 +10513,7 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M34" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>111.3378805152112</v>
@@ -10586,10 +10586,10 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>185.3338243412885</v>
       </c>
       <c r="L35" t="n">
-        <v>27.93639312376211</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
         <v>291.2847697033555</v>
@@ -10607,7 +10607,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3659478324646024</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>134.2193516778625</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>123.3901383819205</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>120.1365532011613</v>
       </c>
       <c r="N36" t="n">
-        <v>105.5601024109537</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>123.9488407068815</v>
       </c>
       <c r="P36" t="n">
-        <v>123.3044588737333</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10747,10 +10747,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>111.3378805152112</v>
@@ -10762,7 +10762,7 @@
         <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
-        <v>39.03773781441843</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
         <v>208.5255628951208</v>
@@ -10844,7 +10844,7 @@
         <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3659478324646024</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>26.19447842494915</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>123.3901383819205</v>
       </c>
       <c r="M39" t="n">
-        <v>120.1365532011613</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>105.5601024109537</v>
       </c>
       <c r="O39" t="n">
-        <v>123.9488407068815</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>123.3044588737333</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10981,25 +10981,25 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>105.2836065989273</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>270.6444670286918</v>
+        <v>237.327217171403</v>
       </c>
       <c r="M41" t="n">
         <v>291.2847697033555</v>
       </c>
       <c r="N41" t="n">
-        <v>209.7751676800397</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11139,13 +11139,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>166.2768523421171</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>123.3901383819205</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>47.58188008576359</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>123.3044588737333</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11215,28 +11215,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>103.7537565737526</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
         <v>291.2847697033555</v>
@@ -11312,13 +11312,13 @@
         <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>186.4547810037564</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
-        <v>0.3659478324645455</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,31 +11370,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>134.2193516778625</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>123.3901383819205</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>120.1365532011613</v>
       </c>
       <c r="N45" t="n">
-        <v>105.5601024109537</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>123.9488407068815</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>123.3044588737333</v>
       </c>
       <c r="Q45" t="n">
-        <v>24.0564437775525</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11452,16 +11452,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>105.2836065989273</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.7628992316142</v>
+        <v>148.8816461697102</v>
       </c>
       <c r="C11" t="n">
         <v>124.9999031730557</v>
@@ -23273,10 +23273,10 @@
         <v>193.6463830872912</v>
       </c>
       <c r="H11" t="n">
-        <v>79.20879163696112</v>
+        <v>121.9571780233643</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>16.33636654630302</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>95.67418940102891</v>
+        <v>52.92580301462593</v>
       </c>
       <c r="W11" t="n">
-        <v>69.9424832312406</v>
+        <v>69.94248323124083</v>
       </c>
       <c r="X11" t="n">
-        <v>134.577120086583</v>
+        <v>121.8703929885872</v>
       </c>
       <c r="Y11" t="n">
-        <v>157.0799732103268</v>
+        <v>114.3315868239238</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>20.702914127591</v>
+        <v>20.7029141275912</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.35672649480904</v>
+        <v>22.35672649480924</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.1332597833071</v>
+        <v>148.8816461697102</v>
       </c>
       <c r="C14" t="n">
-        <v>82.25151678665256</v>
+        <v>124.9999031730557</v>
       </c>
       <c r="D14" t="n">
-        <v>74.91378670496033</v>
+        <v>112.5665654341042</v>
       </c>
       <c r="E14" t="n">
-        <v>146.2733178535131</v>
+        <v>146.273317853513</v>
       </c>
       <c r="F14" t="n">
-        <v>135.2452690454872</v>
+        <v>177.9936554318904</v>
       </c>
       <c r="G14" t="n">
-        <v>193.6463830872912</v>
+        <v>150.8979967008882</v>
       </c>
       <c r="H14" t="n">
         <v>121.9571780233643</v>
       </c>
       <c r="I14" t="n">
-        <v>16.33636654630305</v>
+        <v>16.33636654630302</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>24.94605163114792</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>95.67418940102894</v>
+        <v>52.92580301462593</v>
       </c>
       <c r="W14" t="n">
-        <v>112.6908696176438</v>
+        <v>69.9424832312408</v>
       </c>
       <c r="X14" t="n">
-        <v>134.5771200865831</v>
+        <v>121.8703929885872</v>
       </c>
       <c r="Y14" t="n">
         <v>157.0799732103268</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>20.70291412759103</v>
+        <v>20.7029141275912</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>22.35672649480907</v>
+        <v>22.35672649480924</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.19077655206644</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12.30903355541193</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.55439942784341</v>
+        <v>45.99991259429663</v>
       </c>
       <c r="G17" t="n">
-        <v>38.20712708324418</v>
+        <v>80.95551346964737</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.266308405720526</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88625046893924</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.714864588438708</v>
+        <v>1.640717206280044</v>
       </c>
     </row>
     <row r="18">
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.13647961104084</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>12.30903355541193</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>23.44551316645322</v>
       </c>
       <c r="F20" t="n">
-        <v>22.55439942784341</v>
+        <v>65.30278581424659</v>
       </c>
       <c r="G20" t="n">
-        <v>80.95551346964737</v>
+        <v>38.20712708324439</v>
       </c>
       <c r="H20" t="n">
         <v>9.266308405720526</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.640717206279817</v>
+        <v>1.640717206280044</v>
       </c>
     </row>
     <row r="21">
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.490985692333197e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723009.3089820719</v>
+        <v>723009.3089820718</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>723009.308982072</v>
+        <v>723009.3089820718</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>890482.0583819263</v>
+        <v>890482.0583819264</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>890482.0583819264</v>
+        <v>890482.0583819262</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>868821.4067280173</v>
+        <v>868821.4067280174</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>771690.4957794019</v>
+        <v>771690.495779402</v>
       </c>
       <c r="C2" t="n">
         <v>771690.4957794021</v>
       </c>
       <c r="D2" t="n">
-        <v>771690.495779402</v>
+        <v>771690.4957794019</v>
       </c>
       <c r="E2" t="n">
-        <v>674719.311922338</v>
+        <v>674719.3119223376</v>
       </c>
       <c r="F2" t="n">
         <v>674719.3119223381</v>
       </c>
       <c r="G2" t="n">
-        <v>763651.6104919888</v>
+        <v>763651.6104919891</v>
       </c>
       <c r="H2" t="n">
         <v>763651.6104919891</v>
       </c>
       <c r="I2" t="n">
-        <v>773002.0017108403</v>
+        <v>773002.0017108402</v>
       </c>
       <c r="J2" t="n">
-        <v>773253.7302512191</v>
+        <v>773253.7302512189</v>
       </c>
       <c r="K2" t="n">
-        <v>773253.7302512188</v>
+        <v>773253.7302512189</v>
       </c>
       <c r="L2" t="n">
         <v>773253.730251219</v>
@@ -26347,13 +26347,13 @@
         <v>773253.7302512183</v>
       </c>
       <c r="N2" t="n">
+        <v>773253.7302512185</v>
+      </c>
+      <c r="O2" t="n">
         <v>773253.7302512184</v>
       </c>
-      <c r="O2" t="n">
-        <v>773253.7302512185</v>
-      </c>
       <c r="P2" t="n">
-        <v>773253.7302512184</v>
+        <v>773253.7302512187</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271450.8490213632</v>
+        <v>271450.8490213631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>90152.69569411506</v>
+        <v>90152.69569411503</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9198.987632260258</v>
+        <v>9198.987632260312</v>
       </c>
       <c r="J3" t="n">
-        <v>175465.2321112181</v>
+        <v>175465.232111218</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>90152.69569411506</v>
+        <v>90152.6956941151</v>
       </c>
       <c r="M3" t="n">
-        <v>10209.10387005265</v>
+        <v>10209.10387005258</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>90011.77967238352</v>
+        <v>90011.77967238348</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,7 +26439,7 @@
         <v>470462.7337895231</v>
       </c>
       <c r="J4" t="n">
-        <v>477753.0861195315</v>
+        <v>477753.0861195314</v>
       </c>
       <c r="K4" t="n">
         <v>477753.0861195317</v>
@@ -26448,7 +26448,7 @@
         <v>477753.0861195314</v>
       </c>
       <c r="M4" t="n">
-        <v>476485.5610840434</v>
+        <v>476485.5610840435</v>
       </c>
       <c r="N4" t="n">
         <v>476485.5610840435</v>
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23662.58971912406</v>
+        <v>23662.58971912404</v>
       </c>
       <c r="F5" t="n">
-        <v>23662.58971912405</v>
+        <v>23662.58971912404</v>
       </c>
       <c r="G5" t="n">
-        <v>33136.39843700975</v>
+        <v>33136.39843700974</v>
       </c>
       <c r="H5" t="n">
-        <v>33136.39843700975</v>
+        <v>33136.39843700974</v>
       </c>
       <c r="I5" t="n">
         <v>35239.64883107951</v>
       </c>
       <c r="J5" t="n">
-        <v>45623.24142291673</v>
+        <v>45623.24142291672</v>
       </c>
       <c r="K5" t="n">
-        <v>45623.24142291672</v>
+        <v>45623.2414229167</v>
       </c>
       <c r="L5" t="n">
         <v>45623.24142291673</v>
@@ -26509,7 +26509,7 @@
         <v>44096.9759721877</v>
       </c>
       <c r="P5" t="n">
-        <v>44096.97597218771</v>
+        <v>44096.9759721877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234685.150042522</v>
+        <v>234680.683658317</v>
       </c>
       <c r="C6" t="n">
-        <v>234685.1500425223</v>
+        <v>234680.6836583171</v>
       </c>
       <c r="D6" t="n">
-        <v>234685.1500425221</v>
+        <v>234680.6836583168</v>
       </c>
       <c r="E6" t="n">
-        <v>-29036.53603902975</v>
+        <v>-29318.06294854112</v>
       </c>
       <c r="F6" t="n">
-        <v>242414.3129823335</v>
+        <v>242132.7860728225</v>
       </c>
       <c r="G6" t="n">
-        <v>176139.2870396668</v>
+        <v>176111.8524117835</v>
       </c>
       <c r="H6" t="n">
-        <v>266291.982733782</v>
+        <v>266264.5481058986</v>
       </c>
       <c r="I6" t="n">
-        <v>258100.6314579773</v>
+        <v>258099.9122335761</v>
       </c>
       <c r="J6" t="n">
-        <v>74412.17059755276</v>
+        <v>74412.17059755271</v>
       </c>
       <c r="K6" t="n">
-        <v>249877.4027087704</v>
+        <v>249877.4027087705</v>
       </c>
       <c r="L6" t="n">
-        <v>159724.7070146558</v>
+        <v>159724.7070146557</v>
       </c>
       <c r="M6" t="n">
-        <v>242462.0893249346</v>
+        <v>242462.0893249345</v>
       </c>
       <c r="N6" t="n">
-        <v>252671.1931949873</v>
+        <v>252671.1931949874</v>
       </c>
       <c r="O6" t="n">
         <v>162659.4135226038</v>
       </c>
       <c r="P6" t="n">
-        <v>252671.1931949872</v>
+        <v>252671.1931949875</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>337.8964638257669</v>
       </c>
       <c r="J2" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="K2" t="n">
         <v>225.2055942081231</v>
       </c>
       <c r="L2" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="M2" t="n">
         <v>237.9669740456889</v>
@@ -26725,7 +26725,7 @@
         <v>237.9669740456889</v>
       </c>
       <c r="P2" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
     </row>
     <row r="3">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="F4" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="G4" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="H4" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="I4" t="n">
         <v>77.34132049939259</v>
       </c>
       <c r="J4" t="n">
-        <v>403.9433157250985</v>
+        <v>403.9433157250983</v>
       </c>
       <c r="K4" t="n">
-        <v>403.9433157250985</v>
+        <v>403.9433157250983</v>
       </c>
       <c r="L4" t="n">
-        <v>403.9433157250985</v>
+        <v>403.9433157250983</v>
       </c>
       <c r="M4" t="n">
         <v>361.1949293386946</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>112.5147245904794</v>
+        <v>112.5147245904793</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>112.6908696176438</v>
+        <v>112.6908696176439</v>
       </c>
       <c r="M2" t="n">
-        <v>12.76137983756581</v>
+        <v>12.76137983756573</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.5147245904794</v>
+        <v>112.5147245904793</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.59293411298941</v>
+        <v>34.59293411298962</v>
       </c>
       <c r="J4" t="n">
-        <v>326.6019952257059</v>
+        <v>326.6019952257057</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.5147245904794</v>
+        <v>112.5147245904793</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28123,7 +28123,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>225.2055942081231</v>
       </c>
       <c r="R11" t="n">
-        <v>225.2055942081231</v>
+        <v>195.7486818004609</v>
       </c>
       <c r="S11" t="n">
         <v>225.2055942081231</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>215.1353169020257</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28184,22 +28184,22 @@
         <v>148.7519904438043</v>
       </c>
       <c r="H12" t="n">
-        <v>125.8068574986193</v>
+        <v>168.5552438850223</v>
       </c>
       <c r="I12" t="n">
-        <v>156.9275785056683</v>
+        <v>114.1791921192651</v>
       </c>
       <c r="J12" t="n">
-        <v>162.4971387764058</v>
+        <v>134.8799733987461</v>
       </c>
       <c r="K12" t="n">
         <v>134.2193516778625</v>
       </c>
       <c r="L12" t="n">
-        <v>110.0045737875712</v>
+        <v>123.3901383819205</v>
       </c>
       <c r="M12" t="n">
-        <v>120.1365532011613</v>
+        <v>27.22445370275149</v>
       </c>
       <c r="N12" t="n">
         <v>105.5601024109537</v>
@@ -28208,13 +28208,13 @@
         <v>123.9488407068815</v>
       </c>
       <c r="P12" t="n">
-        <v>123.3044588737333</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>143.9423508135695</v>
       </c>
       <c r="R12" t="n">
-        <v>164.6764208078471</v>
+        <v>135.1783787701112</v>
       </c>
       <c r="S12" t="n">
         <v>191.7279824580148</v>
@@ -28251,13 +28251,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>177.7764357545641</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>181.6752686048496</v>
       </c>
       <c r="G13" t="n">
         <v>168.7069670756</v>
@@ -28266,10 +28266,10 @@
         <v>165.8794514835913</v>
       </c>
       <c r="I13" t="n">
-        <v>165.0391828594611</v>
+        <v>168.0714354279769</v>
       </c>
       <c r="J13" t="n">
-        <v>142.4736768552769</v>
+        <v>120.6773924781522</v>
       </c>
       <c r="K13" t="n">
         <v>136.9193557956152</v>
@@ -28278,22 +28278,22 @@
         <v>138.3560264444839</v>
       </c>
       <c r="M13" t="n">
-        <v>141.8617730835001</v>
+        <v>184.6101594699031</v>
       </c>
       <c r="N13" t="n">
-        <v>128.8056054737466</v>
+        <v>17.46772495853539</v>
       </c>
       <c r="O13" t="n">
-        <v>186.7535022262065</v>
+        <v>38.3541160347115</v>
       </c>
       <c r="P13" t="n">
         <v>146.7117641363518</v>
       </c>
       <c r="Q13" t="n">
-        <v>212.8261173729714</v>
+        <v>170.0777309865682</v>
       </c>
       <c r="R13" t="n">
-        <v>203.7083826667403</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="S13" t="n">
         <v>225.2055942081231</v>
@@ -28314,7 +28314,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.1412728141684</v>
+        <v>225.2055942081231</v>
       </c>
     </row>
     <row r="14">
@@ -28354,7 +28354,7 @@
         <v>225.2055942081231</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>126.873145299587</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,13 +28363,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>200.9985423187467</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>17.07705265821396</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.2055942081231</v>
+        <v>91.20244967737514</v>
       </c>
       <c r="R14" t="n">
         <v>225.2055942081231</v>
@@ -28409,13 +28409,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>201.9207014629815</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>186.4406044975881</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7519904438043</v>
@@ -28427,7 +28427,7 @@
         <v>114.1791921192651</v>
       </c>
       <c r="J15" t="n">
-        <v>177.6283597851493</v>
+        <v>134.8799733987461</v>
       </c>
       <c r="K15" t="n">
         <v>134.2193516778625</v>
@@ -28439,7 +28439,7 @@
         <v>120.1365532011613</v>
       </c>
       <c r="N15" t="n">
-        <v>105.5601024109537</v>
+        <v>133.1772677886135</v>
       </c>
       <c r="O15" t="n">
         <v>123.9488407068815</v>
@@ -28488,7 +28488,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>187.9310366371137</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28512,25 +28512,25 @@
         <v>136.9193557956152</v>
       </c>
       <c r="L16" t="n">
-        <v>138.3560264444839</v>
+        <v>149.4526004069545</v>
       </c>
       <c r="M16" t="n">
-        <v>184.6101594699033</v>
+        <v>184.6101594699031</v>
       </c>
       <c r="N16" t="n">
         <v>128.8056054737466</v>
       </c>
       <c r="O16" t="n">
-        <v>176.5989013436568</v>
+        <v>144.0051158398034</v>
       </c>
       <c r="P16" t="n">
-        <v>189.460150522755</v>
+        <v>146.7117641363518</v>
       </c>
       <c r="Q16" t="n">
         <v>170.0777309865682</v>
       </c>
       <c r="R16" t="n">
-        <v>203.7083826667403</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="S16" t="n">
         <v>225.2055942081231</v>
@@ -28591,7 +28591,7 @@
         <v>218.529382386462</v>
       </c>
       <c r="L17" t="n">
-        <v>225.6301240890308</v>
+        <v>268.3785104754338</v>
       </c>
       <c r="M17" t="n">
         <v>212.0300038026913</v>
@@ -28600,25 +28600,25 @@
         <v>209.7751676800397</v>
       </c>
       <c r="O17" t="n">
-        <v>257.2664809475795</v>
+        <v>214.5180945611763</v>
       </c>
       <c r="P17" t="n">
-        <v>225.6026155533347</v>
+        <v>268.3510019397377</v>
       </c>
       <c r="Q17" t="n">
         <v>228.7825636249934</v>
       </c>
       <c r="R17" t="n">
-        <v>262.3374205171781</v>
+        <v>281.0813082645565</v>
       </c>
       <c r="S17" t="n">
         <v>227.8315607913468</v>
       </c>
       <c r="T17" t="n">
-        <v>265.2746962529043</v>
+        <v>246.5308085055255</v>
       </c>
       <c r="U17" t="n">
-        <v>292.9000322256742</v>
+        <v>250.151645839271</v>
       </c>
       <c r="V17" t="n">
         <v>337.8964638257669</v>
@@ -28828,13 +28828,13 @@
         <v>218.529382386462</v>
       </c>
       <c r="L20" t="n">
-        <v>225.6301240890308</v>
+        <v>268.3785104754338</v>
       </c>
       <c r="M20" t="n">
         <v>212.0300038026913</v>
       </c>
       <c r="N20" t="n">
-        <v>252.5235540664428</v>
+        <v>252.5235540664426</v>
       </c>
       <c r="O20" t="n">
         <v>214.5180945611763</v>
@@ -28843,22 +28843,22 @@
         <v>225.6026155533347</v>
       </c>
       <c r="Q20" t="n">
-        <v>271.5309500113966</v>
+        <v>228.7825636249934</v>
       </c>
       <c r="R20" t="n">
-        <v>281.0813082645567</v>
+        <v>279.3541007337928</v>
       </c>
       <c r="S20" t="n">
-        <v>227.8315607913468</v>
+        <v>270.5799471777498</v>
       </c>
       <c r="T20" t="n">
         <v>222.5263098665012</v>
       </c>
       <c r="U20" t="n">
-        <v>274.1561444782956</v>
+        <v>250.151645839271</v>
       </c>
       <c r="V20" t="n">
-        <v>337.8964638257669</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -29065,37 +29065,37 @@
         <v>218.529382386462</v>
       </c>
       <c r="L23" t="n">
-        <v>225.6301240890308</v>
+        <v>302.9714445884234</v>
       </c>
       <c r="M23" t="n">
         <v>212.0300038026913</v>
       </c>
       <c r="N23" t="n">
-        <v>209.7751676800397</v>
+        <v>287.1164881794323</v>
       </c>
       <c r="O23" t="n">
         <v>214.5180945611763</v>
       </c>
       <c r="P23" t="n">
-        <v>225.6026155533347</v>
+        <v>282.8023539977531</v>
       </c>
       <c r="Q23" t="n">
-        <v>306.123884124386</v>
+        <v>228.7825636249934</v>
       </c>
       <c r="R23" t="n">
         <v>238.3329218781535</v>
       </c>
       <c r="S23" t="n">
-        <v>305.1728812907394</v>
+        <v>227.8315607913468</v>
       </c>
       <c r="T23" t="n">
-        <v>296.7427285275345</v>
+        <v>222.5263098665012</v>
       </c>
       <c r="U23" t="n">
         <v>327.4929663386636</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="C26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="D26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="E26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="F26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="G26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="H26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="I26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="J26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="K26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="L26" t="n">
-        <v>64.48649765942443</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="M26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="N26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="O26" t="n">
-        <v>225.2055942081232</v>
+        <v>166.2655212885493</v>
       </c>
       <c r="P26" t="n">
-        <v>225.2055942081232</v>
+        <v>17.07705265821396</v>
       </c>
       <c r="Q26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="R26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="S26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="T26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="U26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="V26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="W26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="X26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="Y26" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
     </row>
     <row r="27">
@@ -29384,7 +29384,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>24.37328010146724</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.81226836073931</v>
+        <v>143.9423508135695</v>
       </c>
       <c r="R27" t="n">
         <v>135.1783787701112</v>
@@ -29408,13 +29408,13 @@
         <v>215.0006942444116</v>
       </c>
       <c r="U27" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="V27" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="W27" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -29457,10 +29457,10 @@
         <v>120.6773924781522</v>
       </c>
       <c r="K28" t="n">
-        <v>129.0176401754412</v>
+        <v>136.9193557956152</v>
       </c>
       <c r="L28" t="n">
-        <v>33.07241984555669</v>
+        <v>195.0969038669363</v>
       </c>
       <c r="M28" t="n">
         <v>26.18751281417935</v>
@@ -29475,28 +29475,28 @@
         <v>59.22751110885315</v>
       </c>
       <c r="Q28" t="n">
-        <v>225.2055942081232</v>
+        <v>127.7354939577853</v>
       </c>
       <c r="R28" t="n">
         <v>203.7083826667403</v>
       </c>
       <c r="S28" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="T28" t="n">
         <v>223.7880158118717</v>
       </c>
       <c r="U28" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="V28" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="W28" t="n">
-        <v>225.2055942081232</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="X28" t="n">
-        <v>225.2055942081232</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
         <v>217.1412728141684</v>
@@ -29536,7 +29536,7 @@
         <v>225.2055942081231</v>
       </c>
       <c r="K29" t="n">
-        <v>64.48649765942086</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="L29" t="n">
         <v>225.2055942081231</v>
@@ -29545,10 +29545,10 @@
         <v>225.2055942081231</v>
       </c>
       <c r="N29" t="n">
-        <v>225.2055942081231</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>225.2055942081231</v>
+        <v>183.3425739467662</v>
       </c>
       <c r="P29" t="n">
         <v>225.2055942081231</v>
@@ -29624,7 +29624,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>105.560102410954</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -29642,7 +29642,7 @@
         <v>191.7279824580149</v>
       </c>
       <c r="T30" t="n">
-        <v>215.0006942444116</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="U30" t="n">
         <v>225.2055942081231</v>
@@ -29670,7 +29670,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>225.2055942081231</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29694,13 +29694,13 @@
         <v>120.6773924781522</v>
       </c>
       <c r="K31" t="n">
-        <v>67.7493952042805</v>
+        <v>96.32926609907278</v>
       </c>
       <c r="L31" t="n">
         <v>33.07241984555685</v>
       </c>
       <c r="M31" t="n">
-        <v>26.18751281417951</v>
+        <v>141.8617730835003</v>
       </c>
       <c r="N31" t="n">
         <v>17.46772495853555</v>
@@ -29709,10 +29709,10 @@
         <v>38.35411603471165</v>
       </c>
       <c r="P31" t="n">
-        <v>59.22751110885328</v>
+        <v>225.2055942081231</v>
       </c>
       <c r="Q31" t="n">
-        <v>222.9472433490595</v>
+        <v>127.7354939577854</v>
       </c>
       <c r="R31" t="n">
         <v>203.7083826667404</v>
@@ -29736,7 +29736,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.2055942081231</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="C32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="D32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="E32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="F32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="G32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="H32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="I32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="J32" t="n">
-        <v>225.2055942081231</v>
+        <v>121.5970366770495</v>
       </c>
       <c r="K32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="L32" t="n">
-        <v>26.06018082056325</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="M32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="N32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="O32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="P32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="Q32" t="n">
-        <v>225.2055942081231</v>
+        <v>91.20244967737514</v>
       </c>
       <c r="R32" t="n">
-        <v>225.2055942081231</v>
+        <v>195.7486818004609</v>
       </c>
       <c r="S32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="T32" t="n">
         <v>225.2055942081232</v>
       </c>
       <c r="U32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="V32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="W32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="X32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="Y32" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>125.8068574986193</v>
       </c>
       <c r="I33" t="n">
-        <v>107.6177079669821</v>
+        <v>114.1791921192651</v>
       </c>
       <c r="J33" t="n">
         <v>53.1729824981612</v>
@@ -29855,7 +29855,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.47871772643479</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -29882,13 +29882,13 @@
         <v>215.0006942444116</v>
       </c>
       <c r="U33" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="V33" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="W33" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -29904,13 +29904,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200.8700474927845</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>225.2055942081231</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>225.2055942081231</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29934,10 +29934,10 @@
         <v>67.74939520428038</v>
       </c>
       <c r="L34" t="n">
-        <v>33.07241984555669</v>
+        <v>195.0969038669359</v>
       </c>
       <c r="M34" t="n">
-        <v>26.18751281417935</v>
+        <v>141.8617730835001</v>
       </c>
       <c r="N34" t="n">
         <v>17.46772495853539</v>
@@ -29955,19 +29955,19 @@
         <v>203.7083826667403</v>
       </c>
       <c r="S34" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="T34" t="n">
         <v>223.7880158118717</v>
       </c>
       <c r="U34" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="V34" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="W34" t="n">
-        <v>225.2055942081231</v>
+        <v>225.2055942081232</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -30007,7 +30007,7 @@
         <v>237.9669740456889</v>
       </c>
       <c r="J35" t="n">
-        <v>237.9669740456889</v>
+        <v>77.95324445266782</v>
       </c>
       <c r="K35" t="n">
         <v>237.9669740456889</v>
@@ -30019,22 +30019,22 @@
         <v>237.9669740456889</v>
       </c>
       <c r="N35" t="n">
-        <v>237.9669740456889</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>237.9669740456889</v>
+        <v>83.89663223326964</v>
       </c>
       <c r="P35" t="n">
         <v>237.9669740456889</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.3115323403476</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="R35" t="n">
         <v>237.9669740456889</v>
       </c>
       <c r="S35" t="n">
-        <v>227.8315607913468</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="T35" t="n">
         <v>237.9669740456889</v>
@@ -30086,34 +30086,34 @@
         <v>107.6177079669821</v>
       </c>
       <c r="J36" t="n">
-        <v>53.1729824981612</v>
+        <v>134.8799733987461</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>134.2193516778625</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>123.3901383819205</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>105.5601024109537</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>123.3044588737333</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.81226836073931</v>
+        <v>143.9423508135695</v>
       </c>
       <c r="R36" t="n">
-        <v>135.1783787701112</v>
+        <v>173.7676416708244</v>
       </c>
       <c r="S36" t="n">
-        <v>200.8192033209921</v>
+        <v>191.7279824580148</v>
       </c>
       <c r="T36" t="n">
         <v>237.9669740456889</v>
@@ -30153,7 +30153,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>237.9669740456889</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>168.7069670756</v>
@@ -30165,19 +30165,19 @@
         <v>165.0391828594611</v>
       </c>
       <c r="J37" t="n">
-        <v>142.4736768552769</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="K37" t="n">
         <v>136.9193557956152</v>
       </c>
       <c r="L37" t="n">
-        <v>33.07241984555669</v>
+        <v>138.3560264444839</v>
       </c>
       <c r="M37" t="n">
-        <v>26.18751281417935</v>
+        <v>158.7811836360079</v>
       </c>
       <c r="N37" t="n">
-        <v>30.8403408742129</v>
+        <v>17.46772495853539</v>
       </c>
       <c r="O37" t="n">
         <v>38.3541160347115</v>
@@ -30186,7 +30186,7 @@
         <v>59.22751110885315</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.7354939577853</v>
+        <v>170.0777309865682</v>
       </c>
       <c r="R37" t="n">
         <v>203.7083826667403</v>
@@ -30250,7 +30250,7 @@
         <v>8.483155040347278</v>
       </c>
       <c r="L38" t="n">
-        <v>237.9669740456889</v>
+        <v>144.094982819952</v>
       </c>
       <c r="M38" t="n">
         <v>237.9669740456889</v>
@@ -30259,10 +30259,10 @@
         <v>237.9669740456889</v>
       </c>
       <c r="O38" t="n">
-        <v>175.4803567467579</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>203.1130337830749</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="Q38" t="n">
         <v>237.9669740456889</v>
@@ -30274,7 +30274,7 @@
         <v>237.9669740456889</v>
       </c>
       <c r="T38" t="n">
-        <v>237.9669740456889</v>
+        <v>222.5263098665012</v>
       </c>
       <c r="U38" t="n">
         <v>237.9669740456889</v>
@@ -30326,22 +30326,22 @@
         <v>134.8799733987461</v>
       </c>
       <c r="K39" t="n">
-        <v>134.2193516778625</v>
+        <v>108.0248732529133</v>
       </c>
       <c r="L39" t="n">
-        <v>123.3901383819205</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>152.194053865416</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>123.9488407068815</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>123.3044588737333</v>
       </c>
       <c r="Q39" t="n">
         <v>143.9423508135695</v>
@@ -30350,7 +30350,7 @@
         <v>164.6764208078471</v>
       </c>
       <c r="S39" t="n">
-        <v>223.7854831222695</v>
+        <v>191.7279824580148</v>
       </c>
       <c r="T39" t="n">
         <v>215.0006942444116</v>
@@ -30390,7 +30390,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>200.4810229288557</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.7069670756</v>
@@ -30405,34 +30405,34 @@
         <v>120.6773924781522</v>
       </c>
       <c r="K40" t="n">
-        <v>67.74939520428038</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="L40" t="n">
         <v>33.07241984555669</v>
       </c>
       <c r="M40" t="n">
-        <v>26.18751281417935</v>
+        <v>141.8617730835001</v>
       </c>
       <c r="N40" t="n">
-        <v>17.46772495853539</v>
+        <v>128.8056054737466</v>
       </c>
       <c r="O40" t="n">
-        <v>38.3541160347115</v>
+        <v>144.0051158398034</v>
       </c>
       <c r="P40" t="n">
         <v>59.22751110885315</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.7354939577853</v>
+        <v>170.0777309865682</v>
       </c>
       <c r="R40" t="n">
-        <v>237.9669740456889</v>
+        <v>203.7083826667403</v>
       </c>
       <c r="S40" t="n">
-        <v>237.9669740456889</v>
+        <v>235.5459566259441</v>
       </c>
       <c r="T40" t="n">
-        <v>237.9669740456889</v>
+        <v>235.1531053047178</v>
       </c>
       <c r="U40" t="n">
         <v>237.9669740456889</v>
@@ -30484,19 +30484,19 @@
         <v>237.9669740456889</v>
       </c>
       <c r="K41" t="n">
+        <v>8.483155040347278</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>161.9715684980527</v>
+      </c>
+      <c r="N41" t="n">
         <v>237.9669740456889</v>
       </c>
-      <c r="L41" t="n">
+      <c r="O41" t="n">
         <v>237.9669740456889</v>
-      </c>
-      <c r="M41" t="n">
-        <v>210.7631130200372</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>237.9669740456889</v>
@@ -30563,22 +30563,22 @@
         <v>53.1729824981612</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>134.2193516778625</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>123.3901383819205</v>
       </c>
       <c r="M42" t="n">
-        <v>72.55467311539775</v>
+        <v>120.1365532011613</v>
       </c>
       <c r="N42" t="n">
         <v>105.5601024109537</v>
       </c>
       <c r="O42" t="n">
-        <v>123.9488407068815</v>
+        <v>156.0063413711362</v>
       </c>
       <c r="P42" t="n">
-        <v>123.3044588737333</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>143.9423508135695</v>
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>217.0809985824178</v>
       </c>
       <c r="G43" t="n">
         <v>168.7069670756</v>
@@ -30639,31 +30639,31 @@
         <v>165.0391828594611</v>
       </c>
       <c r="J43" t="n">
-        <v>142.4736768552769</v>
+        <v>120.6773924781522</v>
       </c>
       <c r="K43" t="n">
-        <v>136.9193557956152</v>
+        <v>67.74939520428038</v>
       </c>
       <c r="L43" t="n">
-        <v>138.3560264444839</v>
+        <v>33.07241984555669</v>
       </c>
       <c r="M43" t="n">
         <v>141.8617730835001</v>
       </c>
       <c r="N43" t="n">
-        <v>128.8056054737466</v>
+        <v>17.46772495853539</v>
       </c>
       <c r="O43" t="n">
-        <v>150.7668237776313</v>
+        <v>144.0051158398034</v>
       </c>
       <c r="P43" t="n">
         <v>146.7117641363518</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.0777309865682</v>
+        <v>127.7354939577853</v>
       </c>
       <c r="R43" t="n">
-        <v>203.7083826667403</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="S43" t="n">
         <v>235.5459566259441</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="C44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="D44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="E44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="F44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="G44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="H44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="I44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="J44" t="n">
-        <v>237.966974045689</v>
+        <v>77.95324445266782</v>
       </c>
       <c r="K44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="L44" t="n">
-        <v>237.966974045689</v>
+        <v>5.493225621620489</v>
       </c>
       <c r="M44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="N44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="O44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="P44" t="n">
-        <v>17.07705265821396</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="Q44" t="n">
-        <v>228.7825636249934</v>
+        <v>91.20244967737514</v>
       </c>
       <c r="R44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="S44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="T44" t="n">
-        <v>237.966974045689</v>
+        <v>222.5263098665012</v>
       </c>
       <c r="U44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="V44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="W44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="X44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
     </row>
     <row r="45">
@@ -30782,7 +30782,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>203.8850725040543</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30794,31 +30794,31 @@
         <v>125.8068574986193</v>
       </c>
       <c r="I45" t="n">
-        <v>116.7089288299592</v>
+        <v>114.1791921192651</v>
       </c>
       <c r="J45" t="n">
-        <v>53.1729824981612</v>
+        <v>134.8799733987461</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>134.2193516778625</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>123.3901383819205</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>105.5601024109537</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>123.9488407068815</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.885907036017</v>
+        <v>143.9423508135695</v>
       </c>
       <c r="R45" t="n">
         <v>164.6764208078471</v>
@@ -30827,16 +30827,16 @@
         <v>191.7279824580148</v>
       </c>
       <c r="T45" t="n">
-        <v>237.966974045689</v>
+        <v>215.0006942444116</v>
       </c>
       <c r="U45" t="n">
         <v>237.2285554159134</v>
       </c>
       <c r="V45" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="W45" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30876,16 +30876,16 @@
         <v>165.0391828594611</v>
       </c>
       <c r="J46" t="n">
-        <v>120.6773924781522</v>
+        <v>142.4736768552769</v>
       </c>
       <c r="K46" t="n">
-        <v>67.74939520428038</v>
+        <v>136.9193557956152</v>
       </c>
       <c r="L46" t="n">
         <v>33.07241984555669</v>
       </c>
       <c r="M46" t="n">
-        <v>141.8617730835001</v>
+        <v>26.18751281417935</v>
       </c>
       <c r="N46" t="n">
         <v>128.8056054737466</v>
@@ -30894,28 +30894,28 @@
         <v>144.0051158398034</v>
       </c>
       <c r="P46" t="n">
-        <v>61.40873876386905</v>
+        <v>59.22751110885315</v>
       </c>
       <c r="Q46" t="n">
-        <v>237.966974045689</v>
+        <v>234.0528891167222</v>
       </c>
       <c r="R46" t="n">
-        <v>203.7083826667403</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="S46" t="n">
         <v>235.5459566259441</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7880158118717</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="U46" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="V46" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="W46" t="n">
-        <v>237.966974045689</v>
+        <v>237.9669740456889</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -35413,19 +35413,19 @@
         <v>6.676211821661063</v>
       </c>
       <c r="L11" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="M11" t="n">
-        <v>39.41561029643009</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>42.74838638640318</v>
+        <v>15.43042652808344</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>32.24042289708267</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>34.49314725766653</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35465,7 +35465,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>27.61716537765984</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -35480,13 +35480,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="I12" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>27.61716537765964</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35547,13 +35547,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.59378550385335</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35562,7 +35562,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.032252568515859</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35574,22 +35574,22 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.4972115413828</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35610,7 +35610,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.064321393954685</v>
       </c>
     </row>
     <row r="14">
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>37.67774312395144</v>
+        <v>37.67774312395147</v>
       </c>
       <c r="K14" t="n">
-        <v>16.63490971042902</v>
+        <v>6.676211821661063</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,25 +35656,25 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="O14" t="n">
-        <v>42.74838638640318</v>
+        <v>9.958697888767492</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>29.45691240766214</v>
+        <v>29.45691240766217</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.679284341621921</v>
+        <v>2.67928434162195</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -35705,13 +35705,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>27.61716537765972</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>27.61716537765984</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35808,25 +35808,25 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>11.09657396247055</v>
       </c>
       <c r="M16" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>32.5937855038534</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.4972115413828</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,25 +35896,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>24.00449863902455</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>42.74838638640318</v>
+        <v>24.00449863902438</v>
       </c>
       <c r="U17" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>17.01668021661487</v>
@@ -36124,13 +36124,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>42.74838638640318</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36139,22 +36139,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>42.74838638640318</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>42.74838638640318</v>
+        <v>41.02117885563923</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>42.74838638640298</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>24.00449863902455</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36361,37 +36361,37 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>77.34132049939259</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>77.34132049939259</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>57.19973844441844</v>
       </c>
       <c r="Q23" t="n">
-        <v>77.34132049939259</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>77.34132049939259</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>74.21641866103333</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>77.34132049939259</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>147.2523497554554</v>
+        <v>147.2523497554553</v>
       </c>
       <c r="K26" t="n">
         <v>216.7224391677759</v>
       </c>
       <c r="L26" t="n">
-        <v>109.5008405990855</v>
+        <v>270.2199371477842</v>
       </c>
       <c r="M26" t="n">
         <v>304.4603601087874</v>
@@ -36607,22 +36607,22 @@
         <v>298.8312335470492</v>
       </c>
       <c r="O26" t="n">
-        <v>151.096499184422</v>
+        <v>198.505944185632</v>
       </c>
       <c r="P26" t="n">
-        <v>208.1285415499092</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>134.003144530748</v>
       </c>
       <c r="R26" t="n">
-        <v>29.45691240766226</v>
+        <v>29.4569124076622</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.679284341622035</v>
+        <v>2.679284341621978</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>37.15412190628848</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>33.21142985777409</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>70.36555176406274</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>61.26824497116077</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>162.0244840213795</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.47010025033791</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36792,7 +36792,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>3.286138799880661</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>147.2523497554551</v>
       </c>
       <c r="K29" t="n">
-        <v>56.00334261907329</v>
+        <v>216.7224391677755</v>
       </c>
       <c r="L29" t="n">
         <v>270.2199371477838</v>
@@ -36841,19 +36841,19 @@
         <v>304.460360108787</v>
       </c>
       <c r="N29" t="n">
-        <v>298.8312335470488</v>
+        <v>73.62563933892565</v>
       </c>
       <c r="O29" t="n">
-        <v>257.4460171052054</v>
+        <v>215.5829968438485</v>
       </c>
       <c r="P29" t="n">
         <v>208.1285415499088</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.11053901763277</v>
+        <v>134.0031445307477</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>29.45691240766205</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37.15412190628827</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>33.21142985777445</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>60.1606518003512</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36938,7 +36938,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>10.20489996371155</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>58.74841323615078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>162.0244840213796</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.2117493912741</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37032,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.064321393954714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>147.2523497554553</v>
+        <v>43.64379222438166</v>
       </c>
       <c r="K32" t="n">
         <v>216.7224391677759</v>
       </c>
       <c r="L32" t="n">
-        <v>32.6082350859643</v>
+        <v>270.2199371477843</v>
       </c>
       <c r="M32" t="n">
         <v>304.4603601087874</v>
       </c>
       <c r="N32" t="n">
-        <v>298.8312335470492</v>
+        <v>298.8312335470493</v>
       </c>
       <c r="O32" t="n">
-        <v>257.4460171052058</v>
+        <v>257.4460171052059</v>
       </c>
       <c r="P32" t="n">
         <v>208.1285415499092</v>
       </c>
       <c r="Q32" t="n">
-        <v>134.003144530748</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37096,7 +37096,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2.679284341622011</v>
+        <v>2.679284341622064</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>70.36555176406274</v>
+        <v>70.36555176406249</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37200,13 +37200,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.25312682781636</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>58.74841323615078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.02294395741242</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.0244840213792</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37303,34 +37303,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.0137295930211</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>19.4375916592269</v>
+        <v>204.7714160005154</v>
       </c>
       <c r="L35" t="n">
-        <v>40.27324308042025</v>
+        <v>282.98131698535</v>
       </c>
       <c r="M35" t="n">
         <v>317.2217399463532</v>
       </c>
       <c r="N35" t="n">
-        <v>311.592613384615</v>
+        <v>73.62563933892608</v>
       </c>
       <c r="O35" t="n">
-        <v>270.2073969427716</v>
+        <v>116.1370551303523</v>
       </c>
       <c r="P35" t="n">
         <v>220.889921387475</v>
       </c>
       <c r="Q35" t="n">
-        <v>75.10908266297241</v>
+        <v>146.7645243683138</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.21829224522801</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>10.13541325434212</v>
       </c>
       <c r="T35" t="n">
         <v>15.44066417918779</v>
@@ -37406,10 +37406,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.091220862977247</v>
       </c>
       <c r="S36" t="n">
-        <v>9.091220862977247</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>22.96627980127737</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>99.04009182724229</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>95.49329719041206</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>16.91941055250774</v>
       </c>
       <c r="N37" t="n">
-        <v>13.37261591567751</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>282.98131698535</v>
+        <v>189.109325759613</v>
       </c>
       <c r="M38" t="n">
         <v>317.2217399463532</v>
@@ -37555,22 +37555,22 @@
         <v>311.592613384615</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>32.24042289708267</v>
       </c>
       <c r="P38" t="n">
-        <v>186.0359811248609</v>
+        <v>220.889921387475</v>
       </c>
       <c r="Q38" t="n">
         <v>146.7645243683138</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.21829224522801</v>
       </c>
       <c r="S38" t="n">
         <v>10.13541325434212</v>
       </c>
       <c r="T38" t="n">
-        <v>15.44066417918779</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>32.05750066425463</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37646,7 +37646,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>32.05750066425463</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>61.55414071040909</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>101.0476182500737</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37722,13 +37722,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>34.25859137894864</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.421017419744821</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>14.17895823381723</v>
+        <v>11.36508949284606</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>160.0137295930211</v>
       </c>
       <c r="K41" t="n">
-        <v>229.4838190053417</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>282.98131698535</v>
+        <v>11.69709308237216</v>
       </c>
       <c r="M41" t="n">
-        <v>290.0178789207014</v>
+        <v>241.226334398717</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>311.592613384615</v>
       </c>
       <c r="O41" t="n">
-        <v>32.24042289708267</v>
+        <v>270.2073969427716</v>
       </c>
       <c r="P41" t="n">
         <v>220.889921387475</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>32.05750066425463</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.15411636397117</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>112.4127077429198</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>34.25859137894864</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>160.0137295930212</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>229.4838190053417</v>
       </c>
       <c r="L44" t="n">
-        <v>116.0906065304107</v>
+        <v>50.50756856128152</v>
       </c>
       <c r="M44" t="n">
         <v>317.2217399463532</v>
       </c>
       <c r="N44" t="n">
-        <v>311.5926133846151</v>
+        <v>311.592613384615</v>
       </c>
       <c r="O44" t="n">
-        <v>270.2073969427717</v>
+        <v>270.2073969427716</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>198.8191394961106</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.21829224522801</v>
       </c>
       <c r="S44" t="n">
-        <v>10.13541325434218</v>
+        <v>10.13541325434212</v>
       </c>
       <c r="T44" t="n">
-        <v>15.44066417918785</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38078,7 +38078,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>32.05750066425463</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.091220862977085</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38123,7 +38123,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>22.96627980127743</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -38190,19 +38190,19 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.181227655015904</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.2314800879037</v>
+        <v>63.97515813015394</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>34.25859137894864</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>14.17895823381723</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
